--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$84</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -219,6 +219,228 @@
   </si>
   <si>
     <t>Poppy Maskill</t>
+  </si>
+  <si>
+    <t>Rebecca Redfern</t>
+  </si>
+  <si>
+    <t>F 100 Br SB13</t>
+  </si>
+  <si>
+    <t>F 100 Fr S13</t>
+  </si>
+  <si>
+    <t>F 50 Fr S13</t>
+  </si>
+  <si>
+    <t>Rhys Darbey</t>
+  </si>
+  <si>
+    <t>Sam Downie</t>
+  </si>
+  <si>
+    <t>M 400 Fr S8</t>
+  </si>
+  <si>
+    <t>M 100 Bk S8</t>
+  </si>
+  <si>
+    <t>Scarlett Humphrey</t>
+  </si>
+  <si>
+    <t>F 50 Fr S11</t>
+  </si>
+  <si>
+    <t>F 200 IM SM11</t>
+  </si>
+  <si>
+    <t>F 100 Fr S11</t>
+  </si>
+  <si>
+    <t>F 100 Bk S11</t>
+  </si>
+  <si>
+    <t>F 400 Fr S11</t>
+  </si>
+  <si>
+    <t>Scott Quin</t>
+  </si>
+  <si>
+    <t>Siena Oxby</t>
+  </si>
+  <si>
+    <t>Stephen Clegg</t>
+  </si>
+  <si>
+    <t>M 100 Bk S12</t>
+  </si>
+  <si>
+    <t>M 100 Fl S12</t>
+  </si>
+  <si>
+    <t>M 50 Fr S12</t>
+  </si>
+  <si>
+    <t>M 100 Fr S12</t>
+  </si>
+  <si>
+    <t>Suzanna Hext</t>
+  </si>
+  <si>
+    <t>F 50 Fr S5</t>
+  </si>
+  <si>
+    <t>F 200 Fr S5</t>
+  </si>
+  <si>
+    <t>F 100 Fr S5</t>
+  </si>
+  <si>
+    <t>Toni Shaw</t>
+  </si>
+  <si>
+    <t>F 100 Fl S9</t>
+  </si>
+  <si>
+    <t>F 100 Fr S9</t>
+  </si>
+  <si>
+    <t>Tully Kearney</t>
+  </si>
+  <si>
+    <t>F 100 Fr S6</t>
+  </si>
+  <si>
+    <t>F 50 Fr S6</t>
+  </si>
+  <si>
+    <t>William Ellard</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>Rob Aubry</t>
+  </si>
+  <si>
+    <t>X 4x100m Med 49pts</t>
+  </si>
+  <si>
+    <t>X 4x100m Med 34pts</t>
+  </si>
+  <si>
+    <t>X 4x100m Med S14</t>
+  </si>
+  <si>
+    <t>X 4x100m Fr 49pts</t>
+  </si>
+  <si>
+    <t>X 4x100m Fr S14</t>
+  </si>
+  <si>
+    <t>X 4x100m Fr 34pts</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/nj3d2mcs0cm2f17g9znpxth25f693trr.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/55h97nghj7mfz7bxebivfk203liopua4.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/zv6gwsck158gd7sla5hsaoyuytmumryt.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/xmgrhziy1gv7b4sdvu3ugwt7dgwmbcvt.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/t9vpiowbqi6erfib0xqsohmcsj1r2dze.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/03yebjwxq2sovetimqqa93gxf4ovsll7.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/9e0a6i0o01wa7hu2genp4801mc481uhw.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/ifr93ccc8oicj33vekzvl2kf1m49ub7v.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/12y6ry07u4rc28v47a4hkgw6pw4rqkl7.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/a6g49gdussd89imlnqfovv6cd1hfy538.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/wi9kmy13mx9i3sfw38zh7j22bloyh7a2.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/wnj95ay488p6ygwpdfnxuxd2ll7jjnwi.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/2xf24cw8jxw3zgwqaz4frshcndopux8k.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/mexm76mx33b4q1ho1bfjmfz3ziyp1v71.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/bcaua5svwr3c14a3vz6koesev2fuuqq1.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/vy5mfle6nwmfdnzy717rkaaga88t7rhl.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/annf4l4unes98ws43pt7rbth4ufy9l6i.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/3yrtc1hy5djy7mq1p7z3744wef2ofmzh.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/y2hdowrvrdzvmg1z8pmdax8p4k99py9x.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/ug1m7goykhxvxcekqm2xbchnpasctu10.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/f40tkpeoumhair336npoe5gxm63twb9z.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/7tfewwx2ozf6ujsibxy23yj7udojfsqr.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/posuk76mzvyfe1vur8sfp3lprrbp9wyv.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/17jwnciger1rs8qewhfpxzzt0o7b28by.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/kg7b5otmcpx0uke25op8jpeoolnbhgra.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/5c1qo5m0a8djtuc23bl1m6n1ywwopnn6.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/o8eus41q6z03ayrkq1u410vhmduc15zr.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/xzd6uuk209uysq56gp97x4rxbw5pvoqs.jpeg</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/pgte42vax8m1izmzbiyljfshvw0i8s4z.jpeg</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/97z1nxjb2bocdt2mbazhb2c0it66zra9.jpeg</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/qb4osnngw6nmy0pgiia6kuv0wdajd75a.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/uok4paxilmi8jz2nxedl19an3ihrjzbg.jpg</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/0iw3k9c59qky8se568ww96io1p12xrm5.jpeg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a5/Flag_of_the_United_Kingdom_%281-2%29.svg/800px-Flag_of_the_United_Kingdom_%281-2%29.svg.png</t>
   </si>
 </sst>
 </file>
@@ -566,17 +788,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="70.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="79.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="150.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,7 +833,9 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -621,11 +845,17 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -635,11 +865,17 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -649,11 +885,17 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -663,11 +905,17 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -677,11 +925,17 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -691,11 +945,17 @@
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -705,11 +965,17 @@
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -719,11 +985,17 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -733,11 +1005,17 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -747,11 +1025,17 @@
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -761,11 +1045,17 @@
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
@@ -775,11 +1065,17 @@
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
@@ -789,11 +1085,17 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -803,11 +1105,17 @@
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -817,11 +1125,17 @@
       <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -831,11 +1145,17 @@
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
@@ -845,11 +1165,17 @@
       <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
@@ -859,11 +1185,17 @@
       <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
@@ -873,11 +1205,17 @@
       <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -887,11 +1225,17 @@
       <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -901,11 +1245,17 @@
       <c r="D23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
@@ -915,11 +1265,17 @@
       <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
@@ -929,11 +1285,17 @@
       <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
@@ -943,11 +1305,17 @@
       <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
@@ -957,11 +1325,17 @@
       <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
@@ -971,11 +1345,17 @@
       <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
@@ -985,11 +1365,17 @@
       <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
@@ -999,11 +1385,17 @@
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>46</v>
       </c>
@@ -1013,11 +1405,17 @@
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1027,11 +1425,17 @@
       <c r="D32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1041,11 +1445,17 @@
       <c r="D33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
@@ -1055,11 +1465,17 @@
       <c r="D34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
@@ -1069,11 +1485,17 @@
       <c r="D35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1083,11 +1505,17 @@
       <c r="D36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -1097,11 +1525,17 @@
       <c r="D37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -1111,11 +1545,17 @@
       <c r="D38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -1125,11 +1565,17 @@
       <c r="D39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1139,11 +1585,17 @@
       <c r="D40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>54</v>
       </c>
@@ -1153,11 +1605,17 @@
       <c r="D41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
@@ -1167,11 +1625,17 @@
       <c r="D42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
@@ -1181,11 +1645,17 @@
       <c r="D43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>58</v>
       </c>
@@ -1195,11 +1665,17 @@
       <c r="D44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>60</v>
       </c>
@@ -1209,11 +1685,17 @@
       <c r="D45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2"/>
+      <c r="E45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
@@ -1223,11 +1705,17 @@
       <c r="D46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="2"/>
+      <c r="E46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>63</v>
       </c>
@@ -1237,11 +1725,17 @@
       <c r="D47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>63</v>
       </c>
@@ -1251,11 +1745,17 @@
       <c r="D48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>63</v>
       </c>
@@ -1265,267 +1765,724 @@
       <c r="D49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="2"/>
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="2"/>
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="2"/>
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="2"/>
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="2"/>
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2"/>
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="2"/>
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="2"/>
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="2"/>
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="2"/>
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="2"/>
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2"/>
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="2"/>
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="2"/>
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="2"/>
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="2"/>
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="2"/>
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="2"/>
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="2"/>
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="2"/>
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="2"/>
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="2"/>
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="2"/>
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="2"/>
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="2"/>
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="2"/>
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="2"/>
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="2"/>
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="2"/>
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="2"/>
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="2"/>
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="2"/>
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="2"/>
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="2"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="2"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>

--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -440,7 +440,7 @@
     <t>https://swimming.box.com/shared/static/0iw3k9c59qky8se568ww96io1p12xrm5.jpeg</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a5/Flag_of_the_United_Kingdom_%281-2%29.svg/800px-Flag_of_the_United_Kingdom_%281-2%29.svg.png</t>
+    <t>https://www.flaginstitute.org/wp/wp-content/uploads/2012/10/UK-Union-Flag.png</t>
   </si>
 </sst>
 </file>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,7 +2365,7 @@
       <c r="D79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -2385,7 +2385,7 @@
       <c r="D80" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -2405,7 +2405,7 @@
       <c r="D81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F81" s="3" t="s">
@@ -2425,7 +2425,7 @@
       <c r="D82" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F82" s="3" t="s">
@@ -2445,7 +2445,7 @@
       <c r="D83" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F83" s="3" t="s">
@@ -2465,7 +2465,7 @@
       <c r="D84" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -2513,7 +2513,11 @@
       <c r="F90" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E79" r:id="rId1"/>
+    <hyperlink ref="E80:E84" r:id="rId2" display="https://www.flaginstitute.org/wp/wp-content/uploads/2012/10/UK-Union-Flag.png"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MilliganM\Desktop\Performance Statistics\Other Projects &amp; Courses\Python Programming\Projects\Schedule Viewer App\Para Championships 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MilliganM\Desktop\Performance Statistics\Other Projects &amp; Courses\Python Programming\Projects\Schedule Viewer App\World Championships 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$90</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
@@ -41,406 +41,325 @@
     <t>Coach</t>
   </si>
   <si>
+    <t>Abbie Wood</t>
+  </si>
+  <si>
+    <t>Dave Hemmings</t>
+  </si>
+  <si>
+    <t>Daniel Jervis</t>
+  </si>
+  <si>
+    <t>400 FS (M)</t>
+  </si>
+  <si>
+    <t>Laura Stephens</t>
+  </si>
+  <si>
+    <t>Jacob Peters</t>
+  </si>
+  <si>
+    <t>50 FLY (M)</t>
+  </si>
+  <si>
+    <t>Benjamin Proud</t>
+  </si>
+  <si>
+    <t>Freya Anderson</t>
+  </si>
+  <si>
+    <t>Dave McNulty</t>
+  </si>
+  <si>
+    <t>Freya Colbert</t>
+  </si>
+  <si>
+    <t>James Wilby</t>
+  </si>
+  <si>
+    <t>100 BRS (M)</t>
+  </si>
+  <si>
+    <t>Duncan Scott</t>
+  </si>
+  <si>
+    <t>Brodie Williams</t>
+  </si>
+  <si>
+    <t>Medi Harris</t>
+  </si>
+  <si>
+    <t>100 BCK (M)</t>
+  </si>
+  <si>
+    <t>Mel Marshall</t>
+  </si>
+  <si>
+    <t>Joe Litchfield</t>
+  </si>
+  <si>
+    <t>200 FS (M)</t>
+  </si>
+  <si>
+    <t>James Guy</t>
+  </si>
+  <si>
+    <t>800 FS (M)</t>
+  </si>
+  <si>
+    <t>Lewis Burras</t>
+  </si>
+  <si>
+    <t>100 FS (M)</t>
+  </si>
+  <si>
+    <t>Jacob Whittle</t>
+  </si>
+  <si>
+    <t>200 IM (M)</t>
+  </si>
+  <si>
+    <t>Anna Hopkin</t>
+  </si>
+  <si>
+    <t>200 BCK (M)</t>
+  </si>
+  <si>
+    <t>200 BRS (M)</t>
+  </si>
+  <si>
+    <t>100 FLY (M)</t>
+  </si>
+  <si>
+    <t>50 FS (M)</t>
+  </si>
+  <si>
+    <t>1500 FS (M)</t>
+  </si>
+  <si>
+    <t>4x100 MED (M)</t>
+  </si>
+  <si>
+    <t>4x100 FS (M)</t>
+  </si>
+  <si>
+    <t>4x200 FS (M)</t>
+  </si>
+  <si>
+    <t>Lucy Hope</t>
+  </si>
+  <si>
+    <t>4x100 MED (MX)</t>
+  </si>
+  <si>
+    <t>200 IM (F)</t>
+  </si>
+  <si>
+    <t>200 BRS (F)</t>
+  </si>
+  <si>
+    <t>4x100 FS (F)</t>
+  </si>
+  <si>
+    <t>4x200 FS (F)</t>
+  </si>
+  <si>
+    <t>50 FS (F)</t>
+  </si>
+  <si>
+    <t>100 FS (F)</t>
+  </si>
+  <si>
+    <t>4x100 FS (MX)</t>
+  </si>
+  <si>
+    <t>4x100 MED (F)</t>
+  </si>
+  <si>
+    <t>Steve Tigg</t>
+  </si>
+  <si>
+    <t>200 FS (F)</t>
+  </si>
+  <si>
+    <t>400 FS (F)</t>
+  </si>
+  <si>
+    <t>400 IM (F)</t>
+  </si>
+  <si>
+    <t>100 FLY (F)</t>
+  </si>
+  <si>
+    <t>200 FLY (F)</t>
+  </si>
+  <si>
+    <t>Matt Richards</t>
+  </si>
+  <si>
+    <t>50 BCK (F)</t>
+  </si>
+  <si>
+    <t>100 BCK (F)</t>
+  </si>
+  <si>
+    <t>100 BRS (F)</t>
+  </si>
+  <si>
+    <t>Thomas Dean</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Abbie-Wood.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Ben-Proud.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Brodie-Williams.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Daniel-Jervis.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Duncan-Scott.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Freya-Anderson.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Jacob-Peters.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Jacob-Whittle.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/James-Guy.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/James-Wilby.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Joe-Litchfield.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Laura-Stephens.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Lucy-Hope.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Matthew-Richards.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Tom-Dean.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.flaginstitute.org/wp/wp-content/uploads/2012/10/UK-Union-Flag.png</t>
+  </si>
+  <si>
     <t>Athlete Pic URL</t>
   </si>
   <si>
     <t>Coach Pic URL</t>
   </si>
   <si>
+    <t>https://www.britishswimming.org/media/images/Steven_Tigg_-_Cut_Out_u95KIl1.width-300_DAUDUeZ.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Anna-Hopkin.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Freya_Colbert_profile_shot.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Medi_Harris_profile_shot_1.width-300.png</t>
+  </si>
+  <si>
     <t>No Selection</t>
   </si>
   <si>
-    <t>Alice Tai</t>
-  </si>
-  <si>
-    <t>Dave Evitts</t>
-  </si>
-  <si>
-    <t>Bethany Firth</t>
-  </si>
-  <si>
-    <t>Andy Sharp</t>
-  </si>
-  <si>
-    <t>F 100 Bk S8</t>
-  </si>
-  <si>
-    <t>F 100 Fr S8</t>
-  </si>
-  <si>
-    <t>F 50 Fr S8</t>
-  </si>
-  <si>
-    <t>F 200 Fr</t>
-  </si>
-  <si>
-    <t>F 100 Bk S14</t>
-  </si>
-  <si>
-    <t>F 200 IM SM14</t>
-  </si>
-  <si>
-    <t>F 100 Fl S14</t>
-  </si>
-  <si>
-    <t>Brock Whiston</t>
-  </si>
-  <si>
-    <t>F 100 Br SB9</t>
-  </si>
-  <si>
-    <t>F 200 IM SM9</t>
-  </si>
-  <si>
-    <t>F 400 Fr S9</t>
-  </si>
-  <si>
-    <t>Cameron Vearncombe</t>
-  </si>
-  <si>
-    <t>M 100 Bk S14</t>
-  </si>
-  <si>
-    <t>M 100 Br SB14</t>
-  </si>
-  <si>
-    <t>M 200 IM SM14</t>
-  </si>
-  <si>
-    <t>M 100 Fl S14</t>
-  </si>
-  <si>
-    <t>Ellie Challis</t>
-  </si>
-  <si>
-    <t>Aled Davies</t>
-  </si>
-  <si>
-    <t>F 50 Br SB2</t>
-  </si>
-  <si>
-    <t>F 150 IM SM3</t>
-  </si>
-  <si>
-    <t>F 50 Bk S3</t>
-  </si>
-  <si>
-    <t>F 50 Fr S3</t>
-  </si>
-  <si>
-    <t>F 200 Fr S3</t>
-  </si>
-  <si>
-    <t>F 100 Fr S3</t>
-  </si>
-  <si>
-    <t>Faye Rogers</t>
-  </si>
-  <si>
-    <t>Jacquie Marshall</t>
-  </si>
-  <si>
-    <t>F 200 IM SM10</t>
-  </si>
-  <si>
-    <t>F 400 Fr S10</t>
-  </si>
-  <si>
-    <t>F 100 Fl S10</t>
-  </si>
-  <si>
-    <t>F 100 Fr S10</t>
-  </si>
-  <si>
-    <t>Georgia Sheffield</t>
-  </si>
-  <si>
-    <t>Grace Harvey</t>
-  </si>
-  <si>
-    <t>F 100 Bk S6</t>
-  </si>
-  <si>
-    <t>F 200 IM SM6</t>
-  </si>
-  <si>
-    <t>F 100 Br SB5</t>
-  </si>
-  <si>
-    <t>Jessica-Jane Applegate</t>
-  </si>
-  <si>
-    <t>Danielle Brayson</t>
-  </si>
-  <si>
-    <t>F 200 Fr S14</t>
-  </si>
-  <si>
-    <t>Jordan Catchpole</t>
-  </si>
-  <si>
-    <t>M 200 Fr S14</t>
-  </si>
-  <si>
-    <t>Louis Lawlor</t>
-  </si>
-  <si>
-    <t>Louise Fiddes</t>
-  </si>
-  <si>
-    <t>F 100 Br SB14</t>
-  </si>
-  <si>
-    <t>Maisie Summers-Newton</t>
-  </si>
-  <si>
-    <t>F 400 Fr S6</t>
-  </si>
-  <si>
-    <t>F 100 Br SB6</t>
-  </si>
-  <si>
-    <t>F 50 Fl S6</t>
-  </si>
-  <si>
-    <t>Matthew Redfern</t>
-  </si>
-  <si>
-    <t>M 100 Bk S13</t>
-  </si>
-  <si>
-    <t>Oliver Carter</t>
-  </si>
-  <si>
-    <t>M 400 Fr S10</t>
-  </si>
-  <si>
-    <t>M 100 Fr S10</t>
-  </si>
-  <si>
-    <t>Poppy Maskill</t>
-  </si>
-  <si>
-    <t>Rebecca Redfern</t>
-  </si>
-  <si>
-    <t>F 100 Br SB13</t>
-  </si>
-  <si>
-    <t>F 100 Fr S13</t>
-  </si>
-  <si>
-    <t>F 50 Fr S13</t>
-  </si>
-  <si>
-    <t>Rhys Darbey</t>
-  </si>
-  <si>
-    <t>Sam Downie</t>
-  </si>
-  <si>
-    <t>M 400 Fr S8</t>
-  </si>
-  <si>
-    <t>M 100 Bk S8</t>
-  </si>
-  <si>
-    <t>Scarlett Humphrey</t>
-  </si>
-  <si>
-    <t>F 50 Fr S11</t>
-  </si>
-  <si>
-    <t>F 200 IM SM11</t>
-  </si>
-  <si>
-    <t>F 100 Fr S11</t>
-  </si>
-  <si>
-    <t>F 100 Bk S11</t>
-  </si>
-  <si>
-    <t>F 400 Fr S11</t>
-  </si>
-  <si>
-    <t>Scott Quin</t>
-  </si>
-  <si>
-    <t>Siena Oxby</t>
-  </si>
-  <si>
-    <t>Stephen Clegg</t>
-  </si>
-  <si>
-    <t>M 100 Bk S12</t>
-  </si>
-  <si>
-    <t>M 100 Fl S12</t>
-  </si>
-  <si>
-    <t>M 50 Fr S12</t>
-  </si>
-  <si>
-    <t>M 100 Fr S12</t>
-  </si>
-  <si>
-    <t>Suzanna Hext</t>
-  </si>
-  <si>
-    <t>F 50 Fr S5</t>
-  </si>
-  <si>
-    <t>F 200 Fr S5</t>
-  </si>
-  <si>
-    <t>F 100 Fr S5</t>
-  </si>
-  <si>
-    <t>Toni Shaw</t>
-  </si>
-  <si>
-    <t>F 100 Fl S9</t>
-  </si>
-  <si>
-    <t>F 100 Fr S9</t>
-  </si>
-  <si>
-    <t>Tully Kearney</t>
-  </si>
-  <si>
-    <t>F 100 Fr S6</t>
-  </si>
-  <si>
-    <t>F 50 Fr S6</t>
-  </si>
-  <si>
-    <t>William Ellard</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>Rob Aubry</t>
-  </si>
-  <si>
-    <t>X 4x100m Med 49pts</t>
-  </si>
-  <si>
-    <t>X 4x100m Med 34pts</t>
-  </si>
-  <si>
-    <t>X 4x100m Med S14</t>
-  </si>
-  <si>
-    <t>X 4x100m Fr 49pts</t>
-  </si>
-  <si>
-    <t>X 4x100m Fr S14</t>
-  </si>
-  <si>
-    <t>X 4x100m Fr 34pts</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/nj3d2mcs0cm2f17g9znpxth25f693trr.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/55h97nghj7mfz7bxebivfk203liopua4.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/zv6gwsck158gd7sla5hsaoyuytmumryt.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/xmgrhziy1gv7b4sdvu3ugwt7dgwmbcvt.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/t9vpiowbqi6erfib0xqsohmcsj1r2dze.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/03yebjwxq2sovetimqqa93gxf4ovsll7.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/9e0a6i0o01wa7hu2genp4801mc481uhw.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/ifr93ccc8oicj33vekzvl2kf1m49ub7v.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/12y6ry07u4rc28v47a4hkgw6pw4rqkl7.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/a6g49gdussd89imlnqfovv6cd1hfy538.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/wi9kmy13mx9i3sfw38zh7j22bloyh7a2.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/wnj95ay488p6ygwpdfnxuxd2ll7jjnwi.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/2xf24cw8jxw3zgwqaz4frshcndopux8k.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/mexm76mx33b4q1ho1bfjmfz3ziyp1v71.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/bcaua5svwr3c14a3vz6koesev2fuuqq1.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/vy5mfle6nwmfdnzy717rkaaga88t7rhl.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/annf4l4unes98ws43pt7rbth4ufy9l6i.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/3yrtc1hy5djy7mq1p7z3744wef2ofmzh.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/y2hdowrvrdzvmg1z8pmdax8p4k99py9x.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/ug1m7goykhxvxcekqm2xbchnpasctu10.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/f40tkpeoumhair336npoe5gxm63twb9z.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/7tfewwx2ozf6ujsibxy23yj7udojfsqr.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/posuk76mzvyfe1vur8sfp3lprrbp9wyv.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/17jwnciger1rs8qewhfpxzzt0o7b28by.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/kg7b5otmcpx0uke25op8jpeoolnbhgra.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/5c1qo5m0a8djtuc23bl1m6n1ywwopnn6.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/o8eus41q6z03ayrkq1u410vhmduc15zr.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/xzd6uuk209uysq56gp97x4rxbw5pvoqs.jpeg</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/pgte42vax8m1izmzbiyljfshvw0i8s4z.jpeg</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/97z1nxjb2bocdt2mbazhb2c0it66zra9.jpeg</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/qb4osnngw6nmy0pgiia6kuv0wdajd75a.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/uok4paxilmi8jz2nxedl19an3ihrjzbg.jpg</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/0iw3k9c59qky8se568ww96io1p12xrm5.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.flaginstitute.org/wp/wp-content/uploads/2012/10/UK-Union-Flag.png</t>
+    <t>https://www.britishswimming.org/media/images/Lewis_Burras_profile_shot.width-300.png</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/David_Hemmings.width-600.jpg</t>
+  </si>
+  <si>
+    <t>Cam Brooker</t>
+  </si>
+  <si>
+    <t>Emily Large</t>
+  </si>
+  <si>
+    <t>200 BCK (F)</t>
+  </si>
+  <si>
+    <t>Greg Butler</t>
+  </si>
+  <si>
+    <t>Jack McMillan</t>
+  </si>
+  <si>
+    <t>Kara Hanlon</t>
+  </si>
+  <si>
+    <t>Katie Shanahan</t>
+  </si>
+  <si>
+    <t>Keanna MacInnes</t>
+  </si>
+  <si>
+    <t>Lauren Cox</t>
+  </si>
+  <si>
+    <t>Luke Turley</t>
+  </si>
+  <si>
+    <t>Oliver Morgan</t>
+  </si>
+  <si>
+    <t>50 BCK (M)</t>
+  </si>
+  <si>
+    <t>Ryan Livingstone</t>
+  </si>
+  <si>
+    <t>https://www.teambath.com/wp-content/uploads/2021/12/Cameron-Brooker-scholar-swimming-2021-22-292x292.jpg</t>
+  </si>
+  <si>
+    <t>https://i2-prod.stokesentinel.co.uk/incoming/article3213803.ece/ALTERNATES/s1200c/0_GREG_BUTLER-6.jpg</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/E7TMeCFX0Aklo4n?format=jpg&amp;name=4096x4096</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0230/5766/2029/files/image2_480x480.jpg?v=1624268274</t>
+  </si>
+  <si>
+    <t>https://www.britishswimming.org/media/images/Katie_Shanahan_200m_Back_SILVER_MEDAL.min-1024x768.jpg</t>
+  </si>
+  <si>
+    <t>https://www.edinburghnews.scotsman.com/webimg/b25lY21zOjQ3Y2ZmMmU2LWJjNjAtNDQ0OC1hMTgxLWZjNGEzMzQ2MTkyNzo4YTMyYmM1Zi1iMzA4LTQ4YzEtOGY4Yi1iMWJhZWJmZDEwNTI=.jpg?crop=3:2,smart&amp;width=1200&amp;auto=webp&amp;quality=75</t>
+  </si>
+  <si>
+    <t>https://resources.fina.org/photo-resources/2021/10/06/16e0fc80-49d3-4617-87c1-a490ce8574a4/b77c495e-b78c-4914-b03c-e52a760bc569?width=350</t>
+  </si>
+  <si>
+    <t>https://d1s9j44aio5gjs.cloudfront.net/2022/07/luke_turley_1200x675.png</t>
+  </si>
+  <si>
+    <t>https://resources.fina.org/photo-resources/2022/11/02/d9f05fd5-12f3-47ea-9fd3-93523d9356a0/d8a8fbca-16ac-489f-80dd-161b8c704c8b?width=350</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgWFRUYGBgYGBgYGBgYGBgZGBgYGBgZGRgZGBgcIS4lHB4rIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISGjYhJSs0NDQxNDQ0NDQ0NDQxNDQ0NDQ0NDQ0NDQ0NDQ0NDU0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NP/AABEIAPEA0QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xABBEAACAQIDBAgDBQYGAQUAAAABAgADEQQhMQUSQVEGIjJhcYGRsXKhwRMzQlKCBxQjYtHwNFOSssLh8RUWQ3Oi/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAIBAwQFBv/EACkRAAICAQIFAwQDAAAAAAAAAAABAhEDITEEEjJBUQUTcSI0YYFCcqH/2gAMAwEAAhEDEQA/AHQMdGmZi843pSP4v6RMKb/Sr7wfD9ZhRe50sXQhsdCEgsCEISACEIQAIQhAAhCEACEIggA6JFiQAIQhAAhCEACEQRYANktPUeIkUmo6jxHvJYHabsI/dhJox6GrGtHRDGMpx/Sztr8P1mBN7pYf4g+H6zBivc6OHoQhiwhFLQhCEACEIQAIQgFvAAhJxhH/ACn0kLIRqCIEKSfcSEIsCQiRYkCQixBFgARIsIAJCLEgQElodoeI95FJaHaXxHvBgdzCSbsIxiL8QiLEIjGY4zpX94Ph+swJvdK/vf0iYcV7nSxdCEEWEWKWBEixIAEAL5CKikkAC5JsBOo2bstUALZtxP0EHoJKVaLczMFsgtm+XcPrNrD7MVdBNGlRlxKUrchKb3Mv9ykNXAKRms3TSkL0ocwcpyeL2KNUNjyOkxKtJkNmFjO+ej3TO2lgA6m4z4GNGQXKJyESK6lWKnUQjstjJSVoIQhIGCEIQAIkWJAgQSxhh11+Ie8hk2F7S/EvvBgd9uQkkJZRhLEDFiGQZzh+lP3x+ETGm10o++PwiYsV7nTxdKCLEgJA4sIQgBs9HsLclzw6q/UzpqaTK2OtqaeF/WbdNYknqULXUs0klpEkVBZaURCwjKRjJJ92RMnOQSVWpypVSaTLKVeCYrOM6R4XdYOPAzKnUbcp7yETlVmhO4oTE6k0OhCEg0BCEIAJFhCABJsJ20+JfeQyfBdtPiX3gyHsehbsI+0JYc+yWBhCQUnEdKR/GPwiYs2ulX336RMWL3Oni6V8BCEJA4QhLWz6Ku9mFxuk/Qe8Aex0GyW/hr4CbKYpF1OcwsEhFIAHO5z85BVw4PacADUk2HhEaTZk5mlodfhsejGwcX5Xl4VJ5ruorXpuGPcTfyvOs2FjGcBSc5Eo0WQne5vGoBmTM3E7coobbwJ7pU27UZRui/lOYFKmLvUva/BS1j3m2siMbCcmtjr02vTfQ2jaz30nOUHpHNDfuIKN325zaw6ZXztyMJRSIi20Zu1RmBznNVMM6gMVIUk2POdbtahfdOnWAv4yDaeD3kKjgN5f0i/zF4ylSJgvqbOUixIsc0CQhCABCEIAEsYAddPiX3leWcB20+JfeDIex6HCPtCWHOHQimIZBUcT0q++/SJiTb6V/ffpH1mJF7nTxdCCEISCwJr7ATeL87L6XN/pMiaWw627VA4MCvnqPaQ9iHsdHg6V1Ud3vGV9lWffKk8uPjkJPspur4Er6G036KC0rbaZSopo5ShstQSEpnrZMTvWt5nu4TY2bQCMABaw4TQxJAHKR4Glx5yHJvcaMEmMxaXbxHGZFXZzZruAqTplb0OU38SkWg4PHPkYqbQ0opmFR2YMupugdy+wmo1PdFhpNH7MStVtJeu5FJIwtqkbgHePeS1EvTYHVFYX5jdMqbUqdYJ/MPeT7arBKDEakW82y+pjeBYPVnCiEIS0uCEIQAIQhAAlnAdtPiX3laWdn9tPiX3gyHsejWhFhLDnCwMQQaQVHFdKfvv0iYk2ulH336RMWK9zp4uhfAQhCQWBJsNVCOrEXCkG3hIYQA6/ZOKVyxW9i189c7f9zfbFhVuTOF2LiNxtcjrNrapYlQDZdT3nlK5LUzp02XcTjbgtfMaCO2Xt9cw43SNJiNVRzubzb3Bd085IMArfitbPskGCiu4c0uxsY3pCu9ZVLd4taLTxdxvE2PLl3GZtHBBRmxbiLKTHYnELS6rI9zoAuZvmLC8Gl2GuXc3sLtFXFgRvDUR2Jq5Tm0puKivuMlyMja5XjcCaOLxPC/CK0Q5NoxsfiAX3vy2y8MxMfGbRqVe25IGgyAHkJdqnr21uwHzidJtm/YVyoFlZQ68sx1gPA39ZbGOli4pfU0ZEBCEk0WEIQgSBhCEACWcB20+JfeVpYwPbT4l94EPY9HhEhLDnDrxGMoHa1H/MX1jW2zQ/zFkWheSXg5npM38Y+AmPL+2cQr1WZTcG1j5ShEOjBVFIIQhAYIQhACWg9jOgTGB1QHVTnOaBlvDPa0hxtGbLcZX5OybDIxR7DeWxBm1h64sbqpyIy7zec/ha2+gHG3CWqVNgO0fLSV7jKmtTbbFgKB1RZSvM2PL0lM7rNv2Bbn5Wy5aSouDYm9/C8kZgid/93kUkNotintOoC692cw62M3nY6Wyy0k+PxN7jjfLK0yt05Kq3d7AAaknKPGNlE5UzT6N4M18UijNUO+/cFz+ZtPRttdH0xKFHFjqrDVW5iR9DNgDDUgX+8ezOeXJR3CdJv8AJoUaRmc3do+f9q7OfD1GpVBZl9GHBl7jKc916T9GlxdBlIAqKCab8Q35T/KdDPDa9F0Yq6lWBsQRYgiI1RuxZedfkZCJCKXWLCEIEhLGB7afEvvK8koPusrciD6GAPY9H3oTnv/cqflb5RY9oxe1LwczaNIimErN9EZhAwkihCEnwmEeq26iFj3aDxPCBDdEEmw2Feod1EZj3DTxOgnWbL6IDJqzbx/IuQ8zqZ1OGwSIoVFCjkBaMomefEJdOpxOB6JO1jUcKPyr1m9dB85d2t0aCUgaQN0uTncsDrO1Sjl4xrplGpIyyyyluzz3ZOK4aTrcNpn6zntvbFek5rUwWRjcgDNTxsOIkGH2+q5M1vl8jKZQd6F+PKq1OvrOAuswNp17AgD53ylRdrBzZN5jfRRe3flwlzDbAxFc3PUTm395yIwdjSyqjnn3ndUQFmOQUakzv+ifRQUbVq9mq6qPwoCNLc9c5p7B6PU6Aui3fi7DP9PKdHSpATQlRklKxlNCZdpUQo74tJOMeTGSKmyNzOW6UdGqWMC7zFHS+66248DfUTqXF/DlI2pjkJDVjRk4u0eEbc6K4jDElk30H40uRbmw1X275hT6NekbW3bjkZye3eg2Hr3ZF+yfW6AWv/Mmh8RYxXHwa4cT2kePQm1troxicNcum8g/Glytv5uK+cxLRKNUZJq0LFiRZA6HWhEhAB8QmKY2QMxjQiNNzorsb95rbp7CDec8xwXzPyBjFUpKKti7G6NVa4DnqIdCe0w/lHLvnoGytjpQQIgsNSeLHmTNNMMFAAFgMgOQEsBMhHSowTyyl8FQ0wI9KXGTbl2tykrrlJsqK4WI9O/nJkWO3YAZ7KoB38l4zCwmHw9Suymktgp3Syi5scznpe4tNva4ayqAbse0O7TzvaZm1KJpFaqdpLBv5gcs/74yiU3zOtlub8OGDgubeVpfijZw2FppkiKPATUo4a+bekobOxG+qsg7QB9RNJCxlyd6mKSadMsBgJYoJeQ0KPEy6p5RkVseco0DiYoEW14xA0LApaSgSJ2ubCADDI3ojWWLW8YhQmAFCthw3DXUcD5TgulvQdGRqmGQLUXMouSuOIC6BuVtZ6Q9GQ1adxfiNe/vkNWWRm4u0fNrA3toRkQdQeRiCeiftF6N64mktv81QNR+cD39Z54JU1R0cc1JWh0IsIpaLEMWJIGZGZ7F0K2P9hh+sOu9mfnc528hYTz7oXsn94xK3F0Qh25E36o9Rfyns1FLIfE/0lkUYeIn/ABRAlK9v71islvKWqSdkdxP9+sbUS5t5mMZCpSp5k+EHXOWlXU9/tIXWQBEoioIMJJh1vJADTBWxmPtTC3R1P5T8sx7TpP3fKU8bSAR3I0RvYj6xZ9LLMTfuRryjC6K1SU3d3NCVvzuSw97eU6qmrHXLkBqfOYvRSgRTdgO0/sv/AHOipJbvMjDbgrLOMSWeSj5FSnbvPfJFH984nd6x15cZAJki5CMA4Rz8pICu1h7REW2XE690YDnc8Mh4yZV9eMgAVLeMcFjrRLxgGMkYyd/p/wByY8o1hIAy8bhAykWByIseXLkZ4b0s2CcLXIA/hvcoeXND3j2tPfas5npdsdcTQdLda28h5Ounrp4GJJWi7Dk5Zfg8OtCO+zb8jekJTR0OdeRI0mKZf6P4QVsTSpnRnF/AdYj5QRZJ0rPSegGyTRoKziz1H3zzA3eqPT3nXqOofE+8q4Ubqkfle/kZdcWDjz9ZakcqUnKTbHUu14IPn/4iW1MSi2beC+0ix7MEIUXY5KBa5PdfLS8OxCVuiVE6sgqpH1MYiFVYNdhkLXNxYWIHEkxXdTxHHjncZH0kWiXCSVtaFZlljBjOIyQp5MJKFZpgTE6U4jdphBqx+QzPztNxDOSxx/eMWE1VWC+S5t9ZXxEqjS3ehp4KClk53slb/Rt7Hw5Sii8bbx8WN5f0yGscxtpGgS2MeVJIzZJOU3J93YqiOXnKe08UUQ7vaIO6O/ifAazk9h7TZKg3qjbpPWvdlF/xHPLPuiyyqMlFmjDwkssHNdv9O8pjj/dpE7cfIRMTVPVVSueZufwC1yLanMQpC5vLLMtUS019BJUHOMpaeJj2bgJJApN8hF7hEvbIR6rJAQCMaSGMaAFWqJTxC5S+4lOsIrBGJ+40f8pP9IhL32cItD2/J8+GbvQymxxlJlHYJZjyWxH1Ew53f7NsOrLWbiGQfpsfqZVHc6eaXLBs9IdLG9siOsO48RJabXG6dQLeIOakRmGfLcfUdk8xHinnYZMMwOHePAy05ZFQex/0f0k+Jw6ubNewsciQQb3BBHhKobPz9M5dVtTzkVZKbi7QJh1a4YXytc62vfXxF5VxOzUP5tSRncAkknI8Lm8v4XSI+Zg0nuiVkknozNoYDccsGJvckd5z/r6ye2csFZC4zgklsEpOTtlrEVtxGfkpPoP62mD0SoXZ6h4CwPe2Z+nrLnSOpu0LfmKr9T7Sbo5R3aC82Jb52HsJTL6syXhWa4fRwrl3br9I0QOMdpnHBZXxwYoQnaIIHd35zS9EYVqZmLwtOqd41ircLMLKBw3Dl56yq2xF3GKVF+03rqxCqraXVgosQb9+suPQrDsKtrKtnsTfeN2Bu2VrC1+PdLOIp17AKFA3d0Zg2N16xFtNdJlbb1aNccsopRUtChs2k6MFfdzBC7r7wUdorYqDbvz0tN/QeUy9l0232ZkCkAZbqi1+AIGfGab52HMy/HsUZZc0rZIDYW7hAG2QzJkL1LFvGw9BJqItrqZYVEqJbvMfEEW0kgQxpEl3ZE0AIWlKvLriU8TpIZKKF4Rt4RRz5/np/wCzfDBKG+R94zb3gDur7fOec7OwjVqqU11dgvgOJ8hc+U9t2JgUSmqILBBYDwlUV3NvEyqPKae4D1XyP4X9rxzqQLP5OJKoysRcRwUjst5NnLEYTHxWJCHecgAZl/wkc+490qnpThr7u+fHdbd8zI+lKv8AY1chbdvl3EGedpUB4ynLOUXSR0uD4THmi3Js9owzgoCDcEXBHEGOWee9HttNRZUZv4ZsCD+D+YchzE9CBj45qSMvFcLLBKnqnswVZC63dRzllBIlHXHcCY5mMLpdVzRPib6D2M6PA0t1EXkqj5SCvgadRuuoawFjmCPMcJfJsIkINTcn3NGXMpYo40trv9jHbhGIL589PCJa/n7SdMpcZioMKbgb7kDPhfLTOSVKDWADt59a+Q5yWnqT5QcxeRE2yGgCAbm50vpe3G0chz8BeIpsPGMQ5E+UlAMojeY9xPqTNBFmfhTZQTqesb5a55yYYgcXHgoJkohl/fA1iLWU6ESqKi8EdvEG3zin7RtFVB35n0EmyC2xjTKowfFnYn0HpHANotz4wskVxKOLOUtu9sjrM/HPYRWCM7fhKH74nOEUemee/s5ob2ORrXVFck8iy7q+89dTC2PFTwInCfsv2dehVqW6xcBTzVBw8yZ6PSzA5yIrQtzyuXwIrsB11uPzL9RJAA2YIMeoIjHpKeFjzGR+UcoMjbOE3lZTo6lT5i0812n0bq0OvcOg1ZciOW8vCer4qmd3tAjv19ZlYvDipSdL23lK35HgYk4pmrh88sb/AB3POsPU3h3z0jotjPtKCgm7Id0+AzU+hHpPMWRqblGFipKkeE6/oTi92qyHR1uPiX/on0mTG+SfydjjI+9w991qd4JXSoFfPS1pODKhHWM2M86jRVl4H1ztIatYFt0Hx8Jh9IdsDDUt612OSg6X4k9wnEYLb2I3zUZzc8LDdty3ZXPPGLpm3hvT8mePMnS7WerpnnI6uOpqd0uityLAH0nADpViHUgFFv8AiUEN8ybTMerc2JuSbnie+8rlxSWyNeL0ebv3HXxqes0zYD1lXH4taaMzGwHqTwA755quNcHKowtyZh9YtfGO4szswGYDMSPHOQ+KVaIePo0uZXK13J9tbfq1TbeKLwVTb/UeMs7K23VX7KiOuHcKBxAOZN+QFzOVrvvNOp6J4XfxAc//ABobD+ZyAD6K3rKscpSmnZu4rFix4GlFUtvk9AoYddTme+XUUDQCRUlk6idJHlWEDHBYypVVdTny4+kCAC3kNWtbqpmeJ4DxgS7/AMi//o/0jggUWAtACt9nbXM8TMPbmLCI7nRFZj5C83K7WE88/aNj9zDMg1qME8tW+Qt5xJaFkI80kjzj/wBbrfmhKFoSq2dH214PZ/2a/wCEXwP+5p1lKEJatkc/J1MmEGhCMVlatKFaEIjHR5v0i/xNTxH+0S90X/xNLxb/AGNCExS60ejj9s/6npolcat4xITazzaOO/aJpS/X/wAZyY7JhCc/P1nqPT/t4k+C0lgdvyiwlTOgthicY9tIQkDIyk7fnO86E9ur4U/+cIS/B1o5vqH28jvacnSLCdNHlAbSZuH+8MIQYI0GkTQhAClidJ5d+1D7un/9n/BosIki7D1o85hCEpOof//Z</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/smacn7xoonr1qak9p7aottx0nq9d3mps.png</t>
   </si>
 </sst>
 </file>
@@ -788,17 +707,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="79.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="150.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -816,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,29 +744,36 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -857,19 +781,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,19 +801,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -897,19 +821,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,19 +841,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -937,19 +861,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -957,19 +881,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -977,19 +901,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -997,19 +921,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,19 +941,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,19 +961,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,19 +981,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,19 +1001,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,19 +1021,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,19 +1041,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,19 +1061,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1157,19 +1081,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,19 +1101,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,19 +1121,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1217,19 +1141,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1237,19 +1161,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,19 +1181,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,19 +1201,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,19 +1221,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,19 +1241,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,19 +1261,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,19 +1281,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,19 +1301,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1397,19 +1321,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,19 +1341,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,19 +1361,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,19 +1381,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,19 +1401,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,19 +1421,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1517,19 +1441,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,19 +1461,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,19 +1481,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1577,19 +1501,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,19 +1521,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1617,19 +1541,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,19 +1561,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,19 +1581,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1677,19 +1601,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1697,19 +1621,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,19 +1641,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,19 +1661,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,19 +1681,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,19 +1701,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1797,19 +1721,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,19 +1741,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,19 +1761,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1857,19 +1781,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,19 +1801,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1897,19 +1821,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,19 +1841,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,19 +1861,19 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1957,19 +1881,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,19 +1901,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,19 +1921,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,19 +1941,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2037,19 +1961,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,19 +1981,19 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,19 +2001,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2097,19 +2021,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2117,19 +2041,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,19 +2061,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2157,19 +2081,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2177,19 +2101,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2197,19 +2121,19 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,19 +2141,19 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,19 +2161,19 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,19 +2181,19 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2277,19 +2201,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,19 +2221,19 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2317,19 +2241,19 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2337,19 +2261,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2357,19 +2281,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>131</v>
+      <c r="E79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2377,19 +2301,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>131</v>
+      <c r="E80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,19 +2321,19 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>131</v>
+      <c r="E81" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2417,19 +2341,19 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>131</v>
+      <c r="E82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,19 +2361,19 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>131</v>
+        <v>21</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2457,67 +2381,229 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="F85" s="3"/>
+      <c r="D85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="F86" s="3"/>
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="2"/>
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="2"/>
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="2"/>
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="2"/>
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E79" r:id="rId1"/>
-    <hyperlink ref="E80:E84" r:id="rId2" display="https://www.flaginstitute.org/wp/wp-content/uploads/2012/10/UK-Union-Flag.png"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F14" r:id="rId2"/>
+    <hyperlink ref="E30" r:id="rId3"/>
+    <hyperlink ref="E31" r:id="rId4"/>
+    <hyperlink ref="E78" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId6"/>
+    <hyperlink ref="E66" r:id="rId7"/>
+    <hyperlink ref="E67:E69" r:id="rId8" display="https://www.britishswimming.org/media/images/Lewis_Burras_profile_shot.width-300.png"/>
+    <hyperlink ref="E3" r:id="rId9"/>
+    <hyperlink ref="E4:E6" r:id="rId10" display="https://www.britishswimming.org/media/images/Abbie-Wood.width-300.png"/>
+    <hyperlink ref="E7:E11" r:id="rId11" display="https://www.britishswimming.org/media/images/Freya_Colbert_profile_shot.width-300.png"/>
+    <hyperlink ref="E12" r:id="rId12"/>
+    <hyperlink ref="E13" r:id="rId13"/>
+    <hyperlink ref="E14" r:id="rId14"/>
+    <hyperlink ref="E15" r:id="rId15"/>
+    <hyperlink ref="E16" r:id="rId16"/>
+    <hyperlink ref="E17" r:id="rId17"/>
+    <hyperlink ref="E18" r:id="rId18"/>
+    <hyperlink ref="E19" r:id="rId19"/>
+    <hyperlink ref="E20:E22" r:id="rId20" display="https://www.britishswimming.org/media/images/Duncan-Scott.width-300.png"/>
+    <hyperlink ref="E23" r:id="rId21"/>
+    <hyperlink ref="E24" r:id="rId22"/>
+    <hyperlink ref="E25:E29" r:id="rId23" display="https://www.britishswimming.org/media/images/Freya-Anderson.width-300.png"/>
+    <hyperlink ref="E32" r:id="rId24"/>
+    <hyperlink ref="E33" r:id="rId25"/>
+    <hyperlink ref="E34" r:id="rId26"/>
+    <hyperlink ref="E35" r:id="rId27"/>
+    <hyperlink ref="E36" r:id="rId28"/>
+    <hyperlink ref="E37" r:id="rId29"/>
+    <hyperlink ref="E38" r:id="rId30"/>
+    <hyperlink ref="E39" r:id="rId31"/>
+    <hyperlink ref="E40" r:id="rId32"/>
+    <hyperlink ref="E42" r:id="rId33"/>
+    <hyperlink ref="E43" r:id="rId34"/>
+    <hyperlink ref="E44" r:id="rId35"/>
+    <hyperlink ref="E46" r:id="rId36"/>
+    <hyperlink ref="E41" r:id="rId37"/>
+    <hyperlink ref="E45" r:id="rId38"/>
+    <hyperlink ref="E47" r:id="rId39"/>
+    <hyperlink ref="E48" r:id="rId40"/>
+    <hyperlink ref="E49" r:id="rId41"/>
+    <hyperlink ref="E50" r:id="rId42"/>
+    <hyperlink ref="E51" r:id="rId43"/>
+    <hyperlink ref="E52:E53" r:id="rId44" display="https://cdn.shopify.com/s/files/1/0230/5766/2029/files/image2_480x480.jpg?v=1624268274"/>
+    <hyperlink ref="E54" r:id="rId45"/>
+    <hyperlink ref="E56" r:id="rId46"/>
+    <hyperlink ref="E55" r:id="rId47"/>
+    <hyperlink ref="E57" r:id="rId48"/>
+    <hyperlink ref="E58" r:id="rId49"/>
+    <hyperlink ref="E59" r:id="rId50"/>
+    <hyperlink ref="E60" r:id="rId51"/>
+    <hyperlink ref="E61" r:id="rId52"/>
+    <hyperlink ref="E62" r:id="rId53"/>
+    <hyperlink ref="E63" r:id="rId54"/>
+    <hyperlink ref="E64" r:id="rId55"/>
+    <hyperlink ref="E65" r:id="rId56"/>
+    <hyperlink ref="E70" r:id="rId57"/>
+    <hyperlink ref="E71" r:id="rId58"/>
+    <hyperlink ref="E72" r:id="rId59"/>
+    <hyperlink ref="E73" r:id="rId60"/>
+    <hyperlink ref="E74" r:id="rId61"/>
+    <hyperlink ref="E75" r:id="rId62"/>
+    <hyperlink ref="E76" r:id="rId63"/>
+    <hyperlink ref="E77" r:id="rId64"/>
+    <hyperlink ref="E79:E82" r:id="rId65" display="https://www.britishswimming.org/media/images/Medi_Harris_profile_shot_1.width-300.png"/>
+    <hyperlink ref="E87" r:id="rId66"/>
+    <hyperlink ref="E88" r:id="rId67"/>
+    <hyperlink ref="E89" r:id="rId68"/>
+    <hyperlink ref="E83" r:id="rId69"/>
+    <hyperlink ref="E84" r:id="rId70"/>
+    <hyperlink ref="E85" r:id="rId71"/>
+    <hyperlink ref="E86" r:id="rId72"/>
+    <hyperlink ref="E90" r:id="rId73"/>
+    <hyperlink ref="F7" r:id="rId74"/>
+    <hyperlink ref="F8:F11" r:id="rId75" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
+    <hyperlink ref="F34" r:id="rId76"/>
+    <hyperlink ref="F40:F41" r:id="rId77" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
+    <hyperlink ref="F63:F69" r:id="rId78" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
+    <hyperlink ref="F83:F86" r:id="rId79" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
+    <hyperlink ref="F15:F16" r:id="rId80" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
+    <hyperlink ref="F24:F29" r:id="rId81" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
+    <hyperlink ref="F36:F39" r:id="rId82" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
+    <hyperlink ref="F42:F45" r:id="rId83" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
+    <hyperlink ref="F87:F90" r:id="rId84" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>
--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MilliganM\Desktop\Performance Statistics\Other Projects &amp; Courses\Python Programming\Projects\Schedule Viewer App\World Championships 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MilliganM\Desktop\Performance Statistics\Other Projects &amp; Courses\Python Programming\Projects\Schedule Viewer App\Para Championships 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$84</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -41,325 +41,406 @@
     <t>Coach</t>
   </si>
   <si>
-    <t>Abbie Wood</t>
-  </si>
-  <si>
-    <t>Dave Hemmings</t>
-  </si>
-  <si>
-    <t>Daniel Jervis</t>
-  </si>
-  <si>
-    <t>400 FS (M)</t>
-  </si>
-  <si>
-    <t>Laura Stephens</t>
-  </si>
-  <si>
-    <t>Jacob Peters</t>
-  </si>
-  <si>
-    <t>50 FLY (M)</t>
-  </si>
-  <si>
-    <t>Benjamin Proud</t>
-  </si>
-  <si>
-    <t>Freya Anderson</t>
-  </si>
-  <si>
-    <t>Dave McNulty</t>
-  </si>
-  <si>
-    <t>Freya Colbert</t>
-  </si>
-  <si>
-    <t>James Wilby</t>
-  </si>
-  <si>
-    <t>100 BRS (M)</t>
-  </si>
-  <si>
-    <t>Duncan Scott</t>
-  </si>
-  <si>
-    <t>Brodie Williams</t>
-  </si>
-  <si>
-    <t>Medi Harris</t>
-  </si>
-  <si>
-    <t>100 BCK (M)</t>
-  </si>
-  <si>
-    <t>Mel Marshall</t>
-  </si>
-  <si>
-    <t>Joe Litchfield</t>
-  </si>
-  <si>
-    <t>200 FS (M)</t>
-  </si>
-  <si>
-    <t>James Guy</t>
-  </si>
-  <si>
-    <t>800 FS (M)</t>
-  </si>
-  <si>
-    <t>Lewis Burras</t>
-  </si>
-  <si>
-    <t>100 FS (M)</t>
-  </si>
-  <si>
-    <t>Jacob Whittle</t>
-  </si>
-  <si>
-    <t>200 IM (M)</t>
-  </si>
-  <si>
-    <t>Anna Hopkin</t>
-  </si>
-  <si>
-    <t>200 BCK (M)</t>
-  </si>
-  <si>
-    <t>200 BRS (M)</t>
-  </si>
-  <si>
-    <t>100 FLY (M)</t>
-  </si>
-  <si>
-    <t>50 FS (M)</t>
-  </si>
-  <si>
-    <t>1500 FS (M)</t>
-  </si>
-  <si>
-    <t>4x100 MED (M)</t>
-  </si>
-  <si>
-    <t>4x100 FS (M)</t>
-  </si>
-  <si>
-    <t>4x200 FS (M)</t>
-  </si>
-  <si>
-    <t>Lucy Hope</t>
-  </si>
-  <si>
-    <t>4x100 MED (MX)</t>
-  </si>
-  <si>
-    <t>200 IM (F)</t>
-  </si>
-  <si>
-    <t>200 BRS (F)</t>
-  </si>
-  <si>
-    <t>4x100 FS (F)</t>
-  </si>
-  <si>
-    <t>4x200 FS (F)</t>
-  </si>
-  <si>
-    <t>50 FS (F)</t>
-  </si>
-  <si>
-    <t>100 FS (F)</t>
-  </si>
-  <si>
-    <t>4x100 FS (MX)</t>
-  </si>
-  <si>
-    <t>4x100 MED (F)</t>
-  </si>
-  <si>
-    <t>Steve Tigg</t>
-  </si>
-  <si>
-    <t>200 FS (F)</t>
-  </si>
-  <si>
-    <t>400 FS (F)</t>
-  </si>
-  <si>
-    <t>400 IM (F)</t>
-  </si>
-  <si>
-    <t>100 FLY (F)</t>
-  </si>
-  <si>
-    <t>200 FLY (F)</t>
-  </si>
-  <si>
-    <t>Matt Richards</t>
-  </si>
-  <si>
-    <t>50 BCK (F)</t>
-  </si>
-  <si>
-    <t>100 BCK (F)</t>
-  </si>
-  <si>
-    <t>100 BRS (F)</t>
-  </si>
-  <si>
-    <t>Thomas Dean</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Abbie-Wood.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Ben-Proud.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Brodie-Williams.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Daniel-Jervis.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Duncan-Scott.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Freya-Anderson.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Jacob-Peters.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Jacob-Whittle.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/James-Guy.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/James-Wilby.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Joe-Litchfield.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Laura-Stephens.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Lucy-Hope.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Matthew-Richards.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Tom-Dean.width-300.png</t>
+    <t>Athlete Pic URL</t>
+  </si>
+  <si>
+    <t>Coach Pic URL</t>
+  </si>
+  <si>
+    <t>No Selection</t>
+  </si>
+  <si>
+    <t>Alice Tai</t>
+  </si>
+  <si>
+    <t>Dave Evitts</t>
+  </si>
+  <si>
+    <t>Bethany Firth</t>
+  </si>
+  <si>
+    <t>Andy Sharp</t>
+  </si>
+  <si>
+    <t>F 100 Bk S8</t>
+  </si>
+  <si>
+    <t>F 100 Fr S8</t>
+  </si>
+  <si>
+    <t>F 50 Fr S8</t>
+  </si>
+  <si>
+    <t>F 200 Fr</t>
+  </si>
+  <si>
+    <t>F 100 Bk S14</t>
+  </si>
+  <si>
+    <t>F 200 IM SM14</t>
+  </si>
+  <si>
+    <t>F 100 Fl S14</t>
+  </si>
+  <si>
+    <t>Brock Whiston</t>
+  </si>
+  <si>
+    <t>F 100 Br SB9</t>
+  </si>
+  <si>
+    <t>F 200 IM SM9</t>
+  </si>
+  <si>
+    <t>F 400 Fr S9</t>
+  </si>
+  <si>
+    <t>Cameron Vearncombe</t>
+  </si>
+  <si>
+    <t>M 100 Bk S14</t>
+  </si>
+  <si>
+    <t>M 100 Br SB14</t>
+  </si>
+  <si>
+    <t>M 200 IM SM14</t>
+  </si>
+  <si>
+    <t>M 100 Fl S14</t>
+  </si>
+  <si>
+    <t>Ellie Challis</t>
+  </si>
+  <si>
+    <t>Aled Davies</t>
+  </si>
+  <si>
+    <t>F 50 Br SB2</t>
+  </si>
+  <si>
+    <t>F 150 IM SM3</t>
+  </si>
+  <si>
+    <t>F 50 Bk S3</t>
+  </si>
+  <si>
+    <t>F 50 Fr S3</t>
+  </si>
+  <si>
+    <t>F 200 Fr S3</t>
+  </si>
+  <si>
+    <t>F 100 Fr S3</t>
+  </si>
+  <si>
+    <t>Faye Rogers</t>
+  </si>
+  <si>
+    <t>Jacquie Marshall</t>
+  </si>
+  <si>
+    <t>F 200 IM SM10</t>
+  </si>
+  <si>
+    <t>F 400 Fr S10</t>
+  </si>
+  <si>
+    <t>F 100 Fl S10</t>
+  </si>
+  <si>
+    <t>F 100 Fr S10</t>
+  </si>
+  <si>
+    <t>Georgia Sheffield</t>
+  </si>
+  <si>
+    <t>Grace Harvey</t>
+  </si>
+  <si>
+    <t>F 100 Bk S6</t>
+  </si>
+  <si>
+    <t>F 200 IM SM6</t>
+  </si>
+  <si>
+    <t>F 100 Br SB5</t>
+  </si>
+  <si>
+    <t>Jessica-Jane Applegate</t>
+  </si>
+  <si>
+    <t>Danielle Brayson</t>
+  </si>
+  <si>
+    <t>F 200 Fr S14</t>
+  </si>
+  <si>
+    <t>Jordan Catchpole</t>
+  </si>
+  <si>
+    <t>M 200 Fr S14</t>
+  </si>
+  <si>
+    <t>Louis Lawlor</t>
+  </si>
+  <si>
+    <t>Louise Fiddes</t>
+  </si>
+  <si>
+    <t>F 100 Br SB14</t>
+  </si>
+  <si>
+    <t>Maisie Summers-Newton</t>
+  </si>
+  <si>
+    <t>F 400 Fr S6</t>
+  </si>
+  <si>
+    <t>F 100 Br SB6</t>
+  </si>
+  <si>
+    <t>F 50 Fl S6</t>
+  </si>
+  <si>
+    <t>Matthew Redfern</t>
+  </si>
+  <si>
+    <t>M 100 Bk S13</t>
+  </si>
+  <si>
+    <t>Oliver Carter</t>
+  </si>
+  <si>
+    <t>M 400 Fr S10</t>
+  </si>
+  <si>
+    <t>M 100 Fr S10</t>
+  </si>
+  <si>
+    <t>Poppy Maskill</t>
+  </si>
+  <si>
+    <t>Rebecca Redfern</t>
+  </si>
+  <si>
+    <t>F 100 Br SB13</t>
+  </si>
+  <si>
+    <t>F 100 Fr S13</t>
+  </si>
+  <si>
+    <t>F 50 Fr S13</t>
+  </si>
+  <si>
+    <t>Rhys Darbey</t>
+  </si>
+  <si>
+    <t>Sam Downie</t>
+  </si>
+  <si>
+    <t>M 400 Fr S8</t>
+  </si>
+  <si>
+    <t>M 100 Bk S8</t>
+  </si>
+  <si>
+    <t>Scarlett Humphrey</t>
+  </si>
+  <si>
+    <t>F 50 Fr S11</t>
+  </si>
+  <si>
+    <t>F 200 IM SM11</t>
+  </si>
+  <si>
+    <t>F 100 Fr S11</t>
+  </si>
+  <si>
+    <t>F 100 Bk S11</t>
+  </si>
+  <si>
+    <t>F 400 Fr S11</t>
+  </si>
+  <si>
+    <t>Scott Quin</t>
+  </si>
+  <si>
+    <t>Siena Oxby</t>
+  </si>
+  <si>
+    <t>Stephen Clegg</t>
+  </si>
+  <si>
+    <t>M 100 Bk S12</t>
+  </si>
+  <si>
+    <t>M 100 Fl S12</t>
+  </si>
+  <si>
+    <t>M 50 Fr S12</t>
+  </si>
+  <si>
+    <t>M 100 Fr S12</t>
+  </si>
+  <si>
+    <t>Suzanna Hext</t>
+  </si>
+  <si>
+    <t>F 50 Fr S5</t>
+  </si>
+  <si>
+    <t>F 200 Fr S5</t>
+  </si>
+  <si>
+    <t>F 100 Fr S5</t>
+  </si>
+  <si>
+    <t>Toni Shaw</t>
+  </si>
+  <si>
+    <t>F 100 Fl S9</t>
+  </si>
+  <si>
+    <t>F 100 Fr S9</t>
+  </si>
+  <si>
+    <t>Tully Kearney</t>
+  </si>
+  <si>
+    <t>F 100 Fr S6</t>
+  </si>
+  <si>
+    <t>F 50 Fr S6</t>
+  </si>
+  <si>
+    <t>William Ellard</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>Rob Aubry</t>
+  </si>
+  <si>
+    <t>X 4x100m Med 49pts</t>
+  </si>
+  <si>
+    <t>X 4x100m Med 34pts</t>
+  </si>
+  <si>
+    <t>X 4x100m Med S14</t>
+  </si>
+  <si>
+    <t>X 4x100m Fr 49pts</t>
+  </si>
+  <si>
+    <t>X 4x100m Fr S14</t>
+  </si>
+  <si>
+    <t>X 4x100m Fr 34pts</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/nj3d2mcs0cm2f17g9znpxth25f693trr.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/55h97nghj7mfz7bxebivfk203liopua4.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/zv6gwsck158gd7sla5hsaoyuytmumryt.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/xmgrhziy1gv7b4sdvu3ugwt7dgwmbcvt.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/t9vpiowbqi6erfib0xqsohmcsj1r2dze.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/03yebjwxq2sovetimqqa93gxf4ovsll7.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/9e0a6i0o01wa7hu2genp4801mc481uhw.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/ifr93ccc8oicj33vekzvl2kf1m49ub7v.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/12y6ry07u4rc28v47a4hkgw6pw4rqkl7.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/a6g49gdussd89imlnqfovv6cd1hfy538.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/wi9kmy13mx9i3sfw38zh7j22bloyh7a2.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/wnj95ay488p6ygwpdfnxuxd2ll7jjnwi.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/2xf24cw8jxw3zgwqaz4frshcndopux8k.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/mexm76mx33b4q1ho1bfjmfz3ziyp1v71.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/bcaua5svwr3c14a3vz6koesev2fuuqq1.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/vy5mfle6nwmfdnzy717rkaaga88t7rhl.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/annf4l4unes98ws43pt7rbth4ufy9l6i.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/3yrtc1hy5djy7mq1p7z3744wef2ofmzh.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/y2hdowrvrdzvmg1z8pmdax8p4k99py9x.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/ug1m7goykhxvxcekqm2xbchnpasctu10.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/f40tkpeoumhair336npoe5gxm63twb9z.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/7tfewwx2ozf6ujsibxy23yj7udojfsqr.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/posuk76mzvyfe1vur8sfp3lprrbp9wyv.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/17jwnciger1rs8qewhfpxzzt0o7b28by.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/kg7b5otmcpx0uke25op8jpeoolnbhgra.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/5c1qo5m0a8djtuc23bl1m6n1ywwopnn6.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/o8eus41q6z03ayrkq1u410vhmduc15zr.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/xzd6uuk209uysq56gp97x4rxbw5pvoqs.jpeg</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/pgte42vax8m1izmzbiyljfshvw0i8s4z.jpeg</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/97z1nxjb2bocdt2mbazhb2c0it66zra9.jpeg</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/qb4osnngw6nmy0pgiia6kuv0wdajd75a.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/uok4paxilmi8jz2nxedl19an3ihrjzbg.jpg</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/0iw3k9c59qky8se568ww96io1p12xrm5.jpeg</t>
   </si>
   <si>
     <t>https://www.flaginstitute.org/wp/wp-content/uploads/2012/10/UK-Union-Flag.png</t>
-  </si>
-  <si>
-    <t>Athlete Pic URL</t>
-  </si>
-  <si>
-    <t>Coach Pic URL</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Steven_Tigg_-_Cut_Out_u95KIl1.width-300_DAUDUeZ.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Anna-Hopkin.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Freya_Colbert_profile_shot.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Medi_Harris_profile_shot_1.width-300.png</t>
-  </si>
-  <si>
-    <t>No Selection</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Lewis_Burras_profile_shot.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/David_Hemmings.width-600.jpg</t>
-  </si>
-  <si>
-    <t>Cam Brooker</t>
-  </si>
-  <si>
-    <t>Emily Large</t>
-  </si>
-  <si>
-    <t>200 BCK (F)</t>
-  </si>
-  <si>
-    <t>Greg Butler</t>
-  </si>
-  <si>
-    <t>Jack McMillan</t>
-  </si>
-  <si>
-    <t>Kara Hanlon</t>
-  </si>
-  <si>
-    <t>Katie Shanahan</t>
-  </si>
-  <si>
-    <t>Keanna MacInnes</t>
-  </si>
-  <si>
-    <t>Lauren Cox</t>
-  </si>
-  <si>
-    <t>Luke Turley</t>
-  </si>
-  <si>
-    <t>Oliver Morgan</t>
-  </si>
-  <si>
-    <t>50 BCK (M)</t>
-  </si>
-  <si>
-    <t>Ryan Livingstone</t>
-  </si>
-  <si>
-    <t>https://www.teambath.com/wp-content/uploads/2021/12/Cameron-Brooker-scholar-swimming-2021-22-292x292.jpg</t>
-  </si>
-  <si>
-    <t>https://i2-prod.stokesentinel.co.uk/incoming/article3213803.ece/ALTERNATES/s1200c/0_GREG_BUTLER-6.jpg</t>
-  </si>
-  <si>
-    <t>https://pbs.twimg.com/media/E7TMeCFX0Aklo4n?format=jpg&amp;name=4096x4096</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/0230/5766/2029/files/image2_480x480.jpg?v=1624268274</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Katie_Shanahan_200m_Back_SILVER_MEDAL.min-1024x768.jpg</t>
-  </si>
-  <si>
-    <t>https://www.edinburghnews.scotsman.com/webimg/b25lY21zOjQ3Y2ZmMmU2LWJjNjAtNDQ0OC1hMTgxLWZjNGEzMzQ2MTkyNzo4YTMyYmM1Zi1iMzA4LTQ4YzEtOGY4Yi1iMWJhZWJmZDEwNTI=.jpg?crop=3:2,smart&amp;width=1200&amp;auto=webp&amp;quality=75</t>
-  </si>
-  <si>
-    <t>https://resources.fina.org/photo-resources/2021/10/06/16e0fc80-49d3-4617-87c1-a490ce8574a4/b77c495e-b78c-4914-b03c-e52a760bc569?width=350</t>
-  </si>
-  <si>
-    <t>https://d1s9j44aio5gjs.cloudfront.net/2022/07/luke_turley_1200x675.png</t>
-  </si>
-  <si>
-    <t>https://resources.fina.org/photo-resources/2022/11/02/d9f05fd5-12f3-47ea-9fd3-93523d9356a0/d8a8fbca-16ac-489f-80dd-161b8c704c8b?width=350</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgWFRUYGBgYGBgYGBgYGBgZGBgYGBgZGRgZGBgcIS4lHB4rIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISGjYhJSs0NDQxNDQ0NDQ0NDQxNDQ0NDQ0NDQ0NDQ0NDQ0NDU0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NP/AABEIAPEA0QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xABBEAACAQIDBAgDBQYGAQUAAAABAgADEQQhMQUSQVEGIjJhcYGRsXKhwRMzQlKCBxQjYtHwNFOSssLh8RUWQ3Oi/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAIBAwQFBv/EACkRAAICAQIFAwQDAAAAAAAAAAABAhEDITEEEjJBUQUTcSI0YYFCcqH/2gAMAwEAAhEDEQA/AHQMdGmZi843pSP4v6RMKb/Sr7wfD9ZhRe50sXQhsdCEgsCEISACEIQAIQhAAhCEACEIggA6JFiQAIQhAAhCEACEQRYANktPUeIkUmo6jxHvJYHabsI/dhJox6GrGtHRDGMpx/Sztr8P1mBN7pYf4g+H6zBivc6OHoQhiwhFLQhCEACEIQAIQgFvAAhJxhH/ACn0kLIRqCIEKSfcSEIsCQiRYkCQixBFgARIsIAJCLEgQElodoeI95FJaHaXxHvBgdzCSbsIxiL8QiLEIjGY4zpX94Ph+swJvdK/vf0iYcV7nSxdCEEWEWKWBEixIAEAL5CKikkAC5JsBOo2bstUALZtxP0EHoJKVaLczMFsgtm+XcPrNrD7MVdBNGlRlxKUrchKb3Mv9ykNXAKRms3TSkL0ocwcpyeL2KNUNjyOkxKtJkNmFjO+ej3TO2lgA6m4z4GNGQXKJyESK6lWKnUQjstjJSVoIQhIGCEIQAIkWJAgQSxhh11+Ie8hk2F7S/EvvBgd9uQkkJZRhLEDFiGQZzh+lP3x+ETGm10o++PwiYsV7nTxdKCLEgJA4sIQgBs9HsLclzw6q/UzpqaTK2OtqaeF/WbdNYknqULXUs0klpEkVBZaURCwjKRjJJ92RMnOQSVWpypVSaTLKVeCYrOM6R4XdYOPAzKnUbcp7yETlVmhO4oTE6k0OhCEg0BCEIAJFhCABJsJ20+JfeQyfBdtPiX3gyHsehbsI+0JYc+yWBhCQUnEdKR/GPwiYs2ulX336RMWL3Oni6V8BCEJA4QhLWz6Ku9mFxuk/Qe8Aex0GyW/hr4CbKYpF1OcwsEhFIAHO5z85BVw4PacADUk2HhEaTZk5mlodfhsejGwcX5Xl4VJ5ruorXpuGPcTfyvOs2FjGcBSc5Eo0WQne5vGoBmTM3E7coobbwJ7pU27UZRui/lOYFKmLvUva/BS1j3m2siMbCcmtjr02vTfQ2jaz30nOUHpHNDfuIKN325zaw6ZXztyMJRSIi20Zu1RmBznNVMM6gMVIUk2POdbtahfdOnWAv4yDaeD3kKjgN5f0i/zF4ylSJgvqbOUixIsc0CQhCABCEIAEsYAddPiX3leWcB20+JfeDIex6HCPtCWHOHQimIZBUcT0q++/SJiTb6V/ffpH1mJF7nTxdCCEISCwJr7ATeL87L6XN/pMiaWw627VA4MCvnqPaQ9iHsdHg6V1Ud3vGV9lWffKk8uPjkJPspur4Er6G036KC0rbaZSopo5ShstQSEpnrZMTvWt5nu4TY2bQCMABaw4TQxJAHKR4Glx5yHJvcaMEmMxaXbxHGZFXZzZruAqTplb0OU38SkWg4PHPkYqbQ0opmFR2YMupugdy+wmo1PdFhpNH7MStVtJeu5FJIwtqkbgHePeS1EvTYHVFYX5jdMqbUqdYJ/MPeT7arBKDEakW82y+pjeBYPVnCiEIS0uCEIQAIQhAAlnAdtPiX3laWdn9tPiX3gyHsejWhFhLDnCwMQQaQVHFdKfvv0iYk2ulH336RMWK9zp4uhfAQhCQWBJsNVCOrEXCkG3hIYQA6/ZOKVyxW9i189c7f9zfbFhVuTOF2LiNxtcjrNrapYlQDZdT3nlK5LUzp02XcTjbgtfMaCO2Xt9cw43SNJiNVRzubzb3Bd085IMArfitbPskGCiu4c0uxsY3pCu9ZVLd4taLTxdxvE2PLl3GZtHBBRmxbiLKTHYnELS6rI9zoAuZvmLC8Gl2GuXc3sLtFXFgRvDUR2Jq5Tm0puKivuMlyMja5XjcCaOLxPC/CK0Q5NoxsfiAX3vy2y8MxMfGbRqVe25IGgyAHkJdqnr21uwHzidJtm/YVyoFlZQ68sx1gPA39ZbGOli4pfU0ZEBCEk0WEIQgSBhCEACWcB20+JfeVpYwPbT4l94EPY9HhEhLDnDrxGMoHa1H/MX1jW2zQ/zFkWheSXg5npM38Y+AmPL+2cQr1WZTcG1j5ShEOjBVFIIQhAYIQhACWg9jOgTGB1QHVTnOaBlvDPa0hxtGbLcZX5OybDIxR7DeWxBm1h64sbqpyIy7zec/ha2+gHG3CWqVNgO0fLSV7jKmtTbbFgKB1RZSvM2PL0lM7rNv2Bbn5Wy5aSouDYm9/C8kZgid/93kUkNotintOoC692cw62M3nY6Wyy0k+PxN7jjfLK0yt05Kq3d7AAaknKPGNlE5UzT6N4M18UijNUO+/cFz+ZtPRttdH0xKFHFjqrDVW5iR9DNgDDUgX+8ezOeXJR3CdJv8AJoUaRmc3do+f9q7OfD1GpVBZl9GHBl7jKc916T9GlxdBlIAqKCab8Q35T/KdDPDa9F0Yq6lWBsQRYgiI1RuxZedfkZCJCKXWLCEIEhLGB7afEvvK8koPusrciD6GAPY9H3oTnv/cqflb5RY9oxe1LwczaNIimErN9EZhAwkihCEnwmEeq26iFj3aDxPCBDdEEmw2Feod1EZj3DTxOgnWbL6IDJqzbx/IuQ8zqZ1OGwSIoVFCjkBaMomefEJdOpxOB6JO1jUcKPyr1m9dB85d2t0aCUgaQN0uTncsDrO1Sjl4xrplGpIyyyyluzz3ZOK4aTrcNpn6zntvbFek5rUwWRjcgDNTxsOIkGH2+q5M1vl8jKZQd6F+PKq1OvrOAuswNp17AgD53ylRdrBzZN5jfRRe3flwlzDbAxFc3PUTm395yIwdjSyqjnn3ndUQFmOQUakzv+ifRQUbVq9mq6qPwoCNLc9c5p7B6PU6Aui3fi7DP9PKdHSpATQlRklKxlNCZdpUQo74tJOMeTGSKmyNzOW6UdGqWMC7zFHS+66248DfUTqXF/DlI2pjkJDVjRk4u0eEbc6K4jDElk30H40uRbmw1X275hT6NekbW3bjkZye3eg2Hr3ZF+yfW6AWv/Mmh8RYxXHwa4cT2kePQm1troxicNcum8g/Glytv5uK+cxLRKNUZJq0LFiRZA6HWhEhAB8QmKY2QMxjQiNNzorsb95rbp7CDec8xwXzPyBjFUpKKti7G6NVa4DnqIdCe0w/lHLvnoGytjpQQIgsNSeLHmTNNMMFAAFgMgOQEsBMhHSowTyyl8FQ0wI9KXGTbl2tykrrlJsqK4WI9O/nJkWO3YAZ7KoB38l4zCwmHw9Suymktgp3Syi5scznpe4tNva4ayqAbse0O7TzvaZm1KJpFaqdpLBv5gcs/74yiU3zOtlub8OGDgubeVpfijZw2FppkiKPATUo4a+bekobOxG+qsg7QB9RNJCxlyd6mKSadMsBgJYoJeQ0KPEy6p5RkVseco0DiYoEW14xA0LApaSgSJ2ubCADDI3ojWWLW8YhQmAFCthw3DXUcD5TgulvQdGRqmGQLUXMouSuOIC6BuVtZ6Q9GQ1adxfiNe/vkNWWRm4u0fNrA3toRkQdQeRiCeiftF6N64mktv81QNR+cD39Z54JU1R0cc1JWh0IsIpaLEMWJIGZGZ7F0K2P9hh+sOu9mfnc528hYTz7oXsn94xK3F0Qh25E36o9Rfyns1FLIfE/0lkUYeIn/ABRAlK9v71islvKWqSdkdxP9+sbUS5t5mMZCpSp5k+EHXOWlXU9/tIXWQBEoioIMJJh1vJADTBWxmPtTC3R1P5T8sx7TpP3fKU8bSAR3I0RvYj6xZ9LLMTfuRryjC6K1SU3d3NCVvzuSw97eU6qmrHXLkBqfOYvRSgRTdgO0/sv/AHOipJbvMjDbgrLOMSWeSj5FSnbvPfJFH984nd6x15cZAJki5CMA4Rz8pICu1h7REW2XE690YDnc8Mh4yZV9eMgAVLeMcFjrRLxgGMkYyd/p/wByY8o1hIAy8bhAykWByIseXLkZ4b0s2CcLXIA/hvcoeXND3j2tPfas5npdsdcTQdLda28h5Ounrp4GJJWi7Dk5Zfg8OtCO+zb8jekJTR0OdeRI0mKZf6P4QVsTSpnRnF/AdYj5QRZJ0rPSegGyTRoKziz1H3zzA3eqPT3nXqOofE+8q4Ubqkfle/kZdcWDjz9ZakcqUnKTbHUu14IPn/4iW1MSi2beC+0ix7MEIUXY5KBa5PdfLS8OxCVuiVE6sgqpH1MYiFVYNdhkLXNxYWIHEkxXdTxHHjncZH0kWiXCSVtaFZlljBjOIyQp5MJKFZpgTE6U4jdphBqx+QzPztNxDOSxx/eMWE1VWC+S5t9ZXxEqjS3ehp4KClk53slb/Rt7Hw5Sii8bbx8WN5f0yGscxtpGgS2MeVJIzZJOU3J93YqiOXnKe08UUQ7vaIO6O/ifAazk9h7TZKg3qjbpPWvdlF/xHPLPuiyyqMlFmjDwkssHNdv9O8pjj/dpE7cfIRMTVPVVSueZufwC1yLanMQpC5vLLMtUS019BJUHOMpaeJj2bgJJApN8hF7hEvbIR6rJAQCMaSGMaAFWqJTxC5S+4lOsIrBGJ+40f8pP9IhL32cItD2/J8+GbvQymxxlJlHYJZjyWxH1Ew53f7NsOrLWbiGQfpsfqZVHc6eaXLBs9IdLG9siOsO48RJabXG6dQLeIOakRmGfLcfUdk8xHinnYZMMwOHePAy05ZFQex/0f0k+Jw6ubNewsciQQb3BBHhKobPz9M5dVtTzkVZKbi7QJh1a4YXytc62vfXxF5VxOzUP5tSRncAkknI8Lm8v4XSI+Zg0nuiVkknozNoYDccsGJvckd5z/r6ye2csFZC4zgklsEpOTtlrEVtxGfkpPoP62mD0SoXZ6h4CwPe2Z+nrLnSOpu0LfmKr9T7Sbo5R3aC82Jb52HsJTL6syXhWa4fRwrl3br9I0QOMdpnHBZXxwYoQnaIIHd35zS9EYVqZmLwtOqd41ircLMLKBw3Dl56yq2xF3GKVF+03rqxCqraXVgosQb9+suPQrDsKtrKtnsTfeN2Bu2VrC1+PdLOIp17AKFA3d0Zg2N16xFtNdJlbb1aNccsopRUtChs2k6MFfdzBC7r7wUdorYqDbvz0tN/QeUy9l0232ZkCkAZbqi1+AIGfGab52HMy/HsUZZc0rZIDYW7hAG2QzJkL1LFvGw9BJqItrqZYVEqJbvMfEEW0kgQxpEl3ZE0AIWlKvLriU8TpIZKKF4Rt4RRz5/np/wCzfDBKG+R94zb3gDur7fOec7OwjVqqU11dgvgOJ8hc+U9t2JgUSmqILBBYDwlUV3NvEyqPKae4D1XyP4X9rxzqQLP5OJKoysRcRwUjst5NnLEYTHxWJCHecgAZl/wkc+490qnpThr7u+fHdbd8zI+lKv8AY1chbdvl3EGedpUB4ynLOUXSR0uD4THmi3Js9owzgoCDcEXBHEGOWee9HttNRZUZv4ZsCD+D+YchzE9CBj45qSMvFcLLBKnqnswVZC63dRzllBIlHXHcCY5mMLpdVzRPib6D2M6PA0t1EXkqj5SCvgadRuuoawFjmCPMcJfJsIkINTcn3NGXMpYo40trv9jHbhGIL589PCJa/n7SdMpcZioMKbgb7kDPhfLTOSVKDWADt59a+Q5yWnqT5QcxeRE2yGgCAbm50vpe3G0chz8BeIpsPGMQ5E+UlAMojeY9xPqTNBFmfhTZQTqesb5a55yYYgcXHgoJkohl/fA1iLWU6ESqKi8EdvEG3zin7RtFVB35n0EmyC2xjTKowfFnYn0HpHANotz4wskVxKOLOUtu9sjrM/HPYRWCM7fhKH74nOEUemee/s5ob2ORrXVFck8iy7q+89dTC2PFTwInCfsv2dehVqW6xcBTzVBw8yZ6PSzA5yIrQtzyuXwIrsB11uPzL9RJAA2YIMeoIjHpKeFjzGR+UcoMjbOE3lZTo6lT5i0812n0bq0OvcOg1ZciOW8vCer4qmd3tAjv19ZlYvDipSdL23lK35HgYk4pmrh88sb/AB3POsPU3h3z0jotjPtKCgm7Id0+AzU+hHpPMWRqblGFipKkeE6/oTi92qyHR1uPiX/on0mTG+SfydjjI+9w991qd4JXSoFfPS1pODKhHWM2M86jRVl4H1ztIatYFt0Hx8Jh9IdsDDUt612OSg6X4k9wnEYLb2I3zUZzc8LDdty3ZXPPGLpm3hvT8mePMnS7WerpnnI6uOpqd0uityLAH0nADpViHUgFFv8AiUEN8ybTMerc2JuSbnie+8rlxSWyNeL0ebv3HXxqes0zYD1lXH4taaMzGwHqTwA755quNcHKowtyZh9YtfGO4szswGYDMSPHOQ+KVaIePo0uZXK13J9tbfq1TbeKLwVTb/UeMs7K23VX7KiOuHcKBxAOZN+QFzOVrvvNOp6J4XfxAc//ABobD+ZyAD6K3rKscpSmnZu4rFix4GlFUtvk9AoYddTme+XUUDQCRUlk6idJHlWEDHBYypVVdTny4+kCAC3kNWtbqpmeJ4DxgS7/AMi//o/0jggUWAtACt9nbXM8TMPbmLCI7nRFZj5C83K7WE88/aNj9zDMg1qME8tW+Qt5xJaFkI80kjzj/wBbrfmhKFoSq2dH214PZ/2a/wCEXwP+5p1lKEJatkc/J1MmEGhCMVlatKFaEIjHR5v0i/xNTxH+0S90X/xNLxb/AGNCExS60ejj9s/6npolcat4xITazzaOO/aJpS/X/wAZyY7JhCc/P1nqPT/t4k+C0lgdvyiwlTOgthicY9tIQkDIyk7fnO86E9ur4U/+cIS/B1o5vqH28jvacnSLCdNHlAbSZuH+8MIQYI0GkTQhAClidJ5d+1D7un/9n/BosIki7D1o85hCEpOof//Z</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/smacn7xoonr1qak9p7aottx0nq9d3mps.png</t>
   </si>
 </sst>
 </file>
@@ -707,15 +788,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="70.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="79.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="150.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -733,10 +816,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -744,36 +827,29 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,19 +857,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -801,19 +877,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -821,19 +897,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,19 +917,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,19 +937,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -881,19 +957,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,19 +977,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,19 +997,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,19 +1017,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,19 +1037,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -981,19 +1057,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,19 +1077,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,19 +1097,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,19 +1117,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1061,19 +1137,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,19 +1157,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1101,19 +1177,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,19 +1197,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,19 +1217,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,19 +1237,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,19 +1257,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,19 +1277,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,19 +1297,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,19 +1317,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,19 +1337,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,19 +1357,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,19 +1377,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,19 +1397,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,19 +1417,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,19 +1437,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,19 +1457,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,19 +1477,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,19 +1497,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1441,19 +1517,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,19 +1537,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,19 +1557,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,19 +1577,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1521,19 +1597,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,19 +1617,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,19 +1637,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1581,19 +1657,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,19 +1677,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1621,19 +1697,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,19 +1717,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,19 +1737,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,19 +1757,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,19 +1777,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1721,19 +1797,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,19 +1817,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1761,19 +1837,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,19 +1857,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,19 +1877,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,19 +1897,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,19 +1917,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1861,19 +1937,19 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1881,19 +1957,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,19 +1977,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1921,19 +1997,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,19 +2017,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E62" s="3" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,19 +2037,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,19 +2057,19 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2001,19 +2077,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,19 +2097,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2041,19 +2117,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2061,19 +2137,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E68" s="3" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,19 +2157,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2101,19 +2177,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,19 +2197,19 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,19 +2217,19 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2161,19 +2237,19 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,19 +2257,19 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2201,19 +2277,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2221,19 +2297,19 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,19 +2317,19 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2261,19 +2337,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,19 +2357,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>107</v>
+      <c r="E79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2301,19 +2377,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>107</v>
+      <c r="E80" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,19 +2397,19 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>107</v>
+      <c r="E81" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2341,19 +2417,19 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>107</v>
+      <c r="E82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,19 +2437,19 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,229 +2457,67 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="F14" r:id="rId2"/>
-    <hyperlink ref="E30" r:id="rId3"/>
-    <hyperlink ref="E31" r:id="rId4"/>
-    <hyperlink ref="E78" r:id="rId5"/>
-    <hyperlink ref="F2" r:id="rId6"/>
-    <hyperlink ref="E66" r:id="rId7"/>
-    <hyperlink ref="E67:E69" r:id="rId8" display="https://www.britishswimming.org/media/images/Lewis_Burras_profile_shot.width-300.png"/>
-    <hyperlink ref="E3" r:id="rId9"/>
-    <hyperlink ref="E4:E6" r:id="rId10" display="https://www.britishswimming.org/media/images/Abbie-Wood.width-300.png"/>
-    <hyperlink ref="E7:E11" r:id="rId11" display="https://www.britishswimming.org/media/images/Freya_Colbert_profile_shot.width-300.png"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E13" r:id="rId13"/>
-    <hyperlink ref="E14" r:id="rId14"/>
-    <hyperlink ref="E15" r:id="rId15"/>
-    <hyperlink ref="E16" r:id="rId16"/>
-    <hyperlink ref="E17" r:id="rId17"/>
-    <hyperlink ref="E18" r:id="rId18"/>
-    <hyperlink ref="E19" r:id="rId19"/>
-    <hyperlink ref="E20:E22" r:id="rId20" display="https://www.britishswimming.org/media/images/Duncan-Scott.width-300.png"/>
-    <hyperlink ref="E23" r:id="rId21"/>
-    <hyperlink ref="E24" r:id="rId22"/>
-    <hyperlink ref="E25:E29" r:id="rId23" display="https://www.britishswimming.org/media/images/Freya-Anderson.width-300.png"/>
-    <hyperlink ref="E32" r:id="rId24"/>
-    <hyperlink ref="E33" r:id="rId25"/>
-    <hyperlink ref="E34" r:id="rId26"/>
-    <hyperlink ref="E35" r:id="rId27"/>
-    <hyperlink ref="E36" r:id="rId28"/>
-    <hyperlink ref="E37" r:id="rId29"/>
-    <hyperlink ref="E38" r:id="rId30"/>
-    <hyperlink ref="E39" r:id="rId31"/>
-    <hyperlink ref="E40" r:id="rId32"/>
-    <hyperlink ref="E42" r:id="rId33"/>
-    <hyperlink ref="E43" r:id="rId34"/>
-    <hyperlink ref="E44" r:id="rId35"/>
-    <hyperlink ref="E46" r:id="rId36"/>
-    <hyperlink ref="E41" r:id="rId37"/>
-    <hyperlink ref="E45" r:id="rId38"/>
-    <hyperlink ref="E47" r:id="rId39"/>
-    <hyperlink ref="E48" r:id="rId40"/>
-    <hyperlink ref="E49" r:id="rId41"/>
-    <hyperlink ref="E50" r:id="rId42"/>
-    <hyperlink ref="E51" r:id="rId43"/>
-    <hyperlink ref="E52:E53" r:id="rId44" display="https://cdn.shopify.com/s/files/1/0230/5766/2029/files/image2_480x480.jpg?v=1624268274"/>
-    <hyperlink ref="E54" r:id="rId45"/>
-    <hyperlink ref="E56" r:id="rId46"/>
-    <hyperlink ref="E55" r:id="rId47"/>
-    <hyperlink ref="E57" r:id="rId48"/>
-    <hyperlink ref="E58" r:id="rId49"/>
-    <hyperlink ref="E59" r:id="rId50"/>
-    <hyperlink ref="E60" r:id="rId51"/>
-    <hyperlink ref="E61" r:id="rId52"/>
-    <hyperlink ref="E62" r:id="rId53"/>
-    <hyperlink ref="E63" r:id="rId54"/>
-    <hyperlink ref="E64" r:id="rId55"/>
-    <hyperlink ref="E65" r:id="rId56"/>
-    <hyperlink ref="E70" r:id="rId57"/>
-    <hyperlink ref="E71" r:id="rId58"/>
-    <hyperlink ref="E72" r:id="rId59"/>
-    <hyperlink ref="E73" r:id="rId60"/>
-    <hyperlink ref="E74" r:id="rId61"/>
-    <hyperlink ref="E75" r:id="rId62"/>
-    <hyperlink ref="E76" r:id="rId63"/>
-    <hyperlink ref="E77" r:id="rId64"/>
-    <hyperlink ref="E79:E82" r:id="rId65" display="https://www.britishswimming.org/media/images/Medi_Harris_profile_shot_1.width-300.png"/>
-    <hyperlink ref="E87" r:id="rId66"/>
-    <hyperlink ref="E88" r:id="rId67"/>
-    <hyperlink ref="E89" r:id="rId68"/>
-    <hyperlink ref="E83" r:id="rId69"/>
-    <hyperlink ref="E84" r:id="rId70"/>
-    <hyperlink ref="E85" r:id="rId71"/>
-    <hyperlink ref="E86" r:id="rId72"/>
-    <hyperlink ref="E90" r:id="rId73"/>
-    <hyperlink ref="F7" r:id="rId74"/>
-    <hyperlink ref="F8:F11" r:id="rId75" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
-    <hyperlink ref="F34" r:id="rId76"/>
-    <hyperlink ref="F40:F41" r:id="rId77" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
-    <hyperlink ref="F63:F69" r:id="rId78" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
-    <hyperlink ref="F83:F86" r:id="rId79" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
-    <hyperlink ref="F15:F16" r:id="rId80" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
-    <hyperlink ref="F24:F29" r:id="rId81" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
-    <hyperlink ref="F36:F39" r:id="rId82" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
-    <hyperlink ref="F42:F45" r:id="rId83" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
-    <hyperlink ref="F87:F90" r:id="rId84" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
+    <hyperlink ref="E79" r:id="rId1"/>
+    <hyperlink ref="E80:E84" r:id="rId2" display="https://www.flaginstitute.org/wp/wp-content/uploads/2012/10/UK-Union-Flag.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MilliganM\Desktop\Performance Statistics\Other Projects &amp; Courses\Python Programming\Projects\Schedule Viewer App\World Championships 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MilliganM\Desktop\Performance Statistics\Other Projects &amp; Courses\Python Programming\Projects\Schedule Viewer App\Para Championships 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$78</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -41,325 +41,379 @@
     <t>Coach</t>
   </si>
   <si>
-    <t>Abbie Wood</t>
-  </si>
-  <si>
-    <t>Dave Hemmings</t>
-  </si>
-  <si>
-    <t>Daniel Jervis</t>
-  </si>
-  <si>
-    <t>400 FS (M)</t>
-  </si>
-  <si>
-    <t>Laura Stephens</t>
-  </si>
-  <si>
-    <t>Jacob Peters</t>
-  </si>
-  <si>
-    <t>50 FLY (M)</t>
-  </si>
-  <si>
-    <t>Benjamin Proud</t>
-  </si>
-  <si>
-    <t>Freya Anderson</t>
-  </si>
-  <si>
-    <t>Dave McNulty</t>
-  </si>
-  <si>
-    <t>Freya Colbert</t>
-  </si>
-  <si>
-    <t>James Wilby</t>
-  </si>
-  <si>
-    <t>100 BRS (M)</t>
-  </si>
-  <si>
-    <t>Duncan Scott</t>
-  </si>
-  <si>
-    <t>Brodie Williams</t>
-  </si>
-  <si>
-    <t>Medi Harris</t>
-  </si>
-  <si>
-    <t>100 BCK (M)</t>
-  </si>
-  <si>
-    <t>Mel Marshall</t>
-  </si>
-  <si>
-    <t>Joe Litchfield</t>
-  </si>
-  <si>
-    <t>200 FS (M)</t>
-  </si>
-  <si>
-    <t>James Guy</t>
-  </si>
-  <si>
-    <t>800 FS (M)</t>
-  </si>
-  <si>
-    <t>Lewis Burras</t>
-  </si>
-  <si>
-    <t>100 FS (M)</t>
-  </si>
-  <si>
-    <t>Jacob Whittle</t>
-  </si>
-  <si>
-    <t>200 IM (M)</t>
-  </si>
-  <si>
-    <t>Anna Hopkin</t>
-  </si>
-  <si>
-    <t>200 BCK (M)</t>
-  </si>
-  <si>
-    <t>200 BRS (M)</t>
-  </si>
-  <si>
-    <t>100 FLY (M)</t>
-  </si>
-  <si>
-    <t>50 FS (M)</t>
-  </si>
-  <si>
-    <t>1500 FS (M)</t>
-  </si>
-  <si>
-    <t>4x100 MED (M)</t>
-  </si>
-  <si>
-    <t>4x100 FS (M)</t>
-  </si>
-  <si>
-    <t>4x200 FS (M)</t>
-  </si>
-  <si>
-    <t>Lucy Hope</t>
-  </si>
-  <si>
-    <t>4x100 MED (MX)</t>
-  </si>
-  <si>
-    <t>200 IM (F)</t>
-  </si>
-  <si>
-    <t>200 BRS (F)</t>
-  </si>
-  <si>
-    <t>4x100 FS (F)</t>
-  </si>
-  <si>
-    <t>4x200 FS (F)</t>
-  </si>
-  <si>
-    <t>50 FS (F)</t>
-  </si>
-  <si>
-    <t>100 FS (F)</t>
-  </si>
-  <si>
-    <t>4x100 FS (MX)</t>
-  </si>
-  <si>
-    <t>4x100 MED (F)</t>
-  </si>
-  <si>
-    <t>Steve Tigg</t>
-  </si>
-  <si>
-    <t>200 FS (F)</t>
-  </si>
-  <si>
-    <t>400 FS (F)</t>
-  </si>
-  <si>
-    <t>400 IM (F)</t>
-  </si>
-  <si>
-    <t>100 FLY (F)</t>
-  </si>
-  <si>
-    <t>200 FLY (F)</t>
-  </si>
-  <si>
-    <t>Matt Richards</t>
-  </si>
-  <si>
-    <t>50 BCK (F)</t>
-  </si>
-  <si>
-    <t>100 BCK (F)</t>
-  </si>
-  <si>
-    <t>100 BRS (F)</t>
-  </si>
-  <si>
-    <t>Thomas Dean</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Abbie-Wood.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Ben-Proud.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Brodie-Williams.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Daniel-Jervis.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Duncan-Scott.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Freya-Anderson.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Jacob-Peters.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Jacob-Whittle.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/James-Guy.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/James-Wilby.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Joe-Litchfield.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Laura-Stephens.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Lucy-Hope.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Matthew-Richards.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Tom-Dean.width-300.png</t>
+    <t>Athlete Pic URL</t>
+  </si>
+  <si>
+    <t>Coach Pic URL</t>
+  </si>
+  <si>
+    <t>No Selection</t>
+  </si>
+  <si>
+    <t>Alice Tai</t>
+  </si>
+  <si>
+    <t>Dave Evitts</t>
+  </si>
+  <si>
+    <t>Bethany Firth</t>
+  </si>
+  <si>
+    <t>Andy Sharp</t>
+  </si>
+  <si>
+    <t>F 100 Bk S8</t>
+  </si>
+  <si>
+    <t>F 100 Fr S8</t>
+  </si>
+  <si>
+    <t>F 50 Fr S8</t>
+  </si>
+  <si>
+    <t>F 200 Fr</t>
+  </si>
+  <si>
+    <t>F 100 Bk S14</t>
+  </si>
+  <si>
+    <t>F 200 IM SM14</t>
+  </si>
+  <si>
+    <t>F 100 Fl S14</t>
+  </si>
+  <si>
+    <t>Brock Whiston</t>
+  </si>
+  <si>
+    <t>F 100 Br SB9</t>
+  </si>
+  <si>
+    <t>F 200 IM SM9</t>
+  </si>
+  <si>
+    <t>F 400 Fr S9</t>
+  </si>
+  <si>
+    <t>Cameron Vearncombe</t>
+  </si>
+  <si>
+    <t>M 100 Bk S14</t>
+  </si>
+  <si>
+    <t>M 100 Br SB14</t>
+  </si>
+  <si>
+    <t>M 200 IM SM14</t>
+  </si>
+  <si>
+    <t>M 100 Fl S14</t>
+  </si>
+  <si>
+    <t>Ellie Challis</t>
+  </si>
+  <si>
+    <t>Aled Davies</t>
+  </si>
+  <si>
+    <t>F 50 Br SB2</t>
+  </si>
+  <si>
+    <t>F 150 IM SM3</t>
+  </si>
+  <si>
+    <t>F 50 Bk S3</t>
+  </si>
+  <si>
+    <t>F 50 Fr S3</t>
+  </si>
+  <si>
+    <t>F 200 Fr S3</t>
+  </si>
+  <si>
+    <t>F 100 Fr S3</t>
+  </si>
+  <si>
+    <t>Faye Rogers</t>
+  </si>
+  <si>
+    <t>Jacquie Marshall</t>
+  </si>
+  <si>
+    <t>F 200 IM SM10</t>
+  </si>
+  <si>
+    <t>F 400 Fr S10</t>
+  </si>
+  <si>
+    <t>F 100 Fl S10</t>
+  </si>
+  <si>
+    <t>F 100 Fr S10</t>
+  </si>
+  <si>
+    <t>Georgia Sheffield</t>
+  </si>
+  <si>
+    <t>Grace Harvey</t>
+  </si>
+  <si>
+    <t>F 100 Bk S6</t>
+  </si>
+  <si>
+    <t>F 200 IM SM6</t>
+  </si>
+  <si>
+    <t>F 100 Br SB5</t>
+  </si>
+  <si>
+    <t>Jessica-Jane Applegate</t>
+  </si>
+  <si>
+    <t>Danielle Brayson</t>
+  </si>
+  <si>
+    <t>F 200 Fr S14</t>
+  </si>
+  <si>
+    <t>Jordan Catchpole</t>
+  </si>
+  <si>
+    <t>M 200 Fr S14</t>
+  </si>
+  <si>
+    <t>Louis Lawlor</t>
+  </si>
+  <si>
+    <t>Louise Fiddes</t>
+  </si>
+  <si>
+    <t>F 100 Br SB14</t>
+  </si>
+  <si>
+    <t>Maisie Summers-Newton</t>
+  </si>
+  <si>
+    <t>F 400 Fr S6</t>
+  </si>
+  <si>
+    <t>F 100 Br SB6</t>
+  </si>
+  <si>
+    <t>F 50 Fl S6</t>
+  </si>
+  <si>
+    <t>Matthew Redfern</t>
+  </si>
+  <si>
+    <t>M 100 Bk S13</t>
+  </si>
+  <si>
+    <t>Oliver Carter</t>
+  </si>
+  <si>
+    <t>M 400 Fr S10</t>
+  </si>
+  <si>
+    <t>M 100 Fr S10</t>
+  </si>
+  <si>
+    <t>Poppy Maskill</t>
+  </si>
+  <si>
+    <t>Rebecca Redfern</t>
+  </si>
+  <si>
+    <t>F 100 Br SB13</t>
+  </si>
+  <si>
+    <t>F 100 Fr S13</t>
+  </si>
+  <si>
+    <t>F 50 Fr S13</t>
+  </si>
+  <si>
+    <t>Rhys Darbey</t>
+  </si>
+  <si>
+    <t>Sam Downie</t>
+  </si>
+  <si>
+    <t>M 400 Fr S8</t>
+  </si>
+  <si>
+    <t>M 100 Bk S8</t>
+  </si>
+  <si>
+    <t>Scarlett Humphrey</t>
+  </si>
+  <si>
+    <t>F 50 Fr S11</t>
+  </si>
+  <si>
+    <t>F 200 IM SM11</t>
+  </si>
+  <si>
+    <t>F 100 Fr S11</t>
+  </si>
+  <si>
+    <t>F 100 Bk S11</t>
+  </si>
+  <si>
+    <t>F 400 Fr S11</t>
+  </si>
+  <si>
+    <t>Scott Quin</t>
+  </si>
+  <si>
+    <t>Siena Oxby</t>
+  </si>
+  <si>
+    <t>Stephen Clegg</t>
+  </si>
+  <si>
+    <t>M 100 Bk S12</t>
+  </si>
+  <si>
+    <t>M 100 Fl S12</t>
+  </si>
+  <si>
+    <t>M 50 Fr S12</t>
+  </si>
+  <si>
+    <t>M 100 Fr S12</t>
+  </si>
+  <si>
+    <t>Suzanna Hext</t>
+  </si>
+  <si>
+    <t>F 50 Fr S5</t>
+  </si>
+  <si>
+    <t>F 200 Fr S5</t>
+  </si>
+  <si>
+    <t>F 100 Fr S5</t>
+  </si>
+  <si>
+    <t>Toni Shaw</t>
+  </si>
+  <si>
+    <t>F 100 Fl S9</t>
+  </si>
+  <si>
+    <t>F 100 Fr S9</t>
+  </si>
+  <si>
+    <t>Tully Kearney</t>
+  </si>
+  <si>
+    <t>F 100 Fr S6</t>
+  </si>
+  <si>
+    <t>F 50 Fr S6</t>
+  </si>
+  <si>
+    <t>William Ellard</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/nj3d2mcs0cm2f17g9znpxth25f693trr.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/55h97nghj7mfz7bxebivfk203liopua4.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/zv6gwsck158gd7sla5hsaoyuytmumryt.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/xmgrhziy1gv7b4sdvu3ugwt7dgwmbcvt.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/t9vpiowbqi6erfib0xqsohmcsj1r2dze.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/03yebjwxq2sovetimqqa93gxf4ovsll7.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/9e0a6i0o01wa7hu2genp4801mc481uhw.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/ifr93ccc8oicj33vekzvl2kf1m49ub7v.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/12y6ry07u4rc28v47a4hkgw6pw4rqkl7.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/a6g49gdussd89imlnqfovv6cd1hfy538.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/wi9kmy13mx9i3sfw38zh7j22bloyh7a2.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/wnj95ay488p6ygwpdfnxuxd2ll7jjnwi.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/2xf24cw8jxw3zgwqaz4frshcndopux8k.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/mexm76mx33b4q1ho1bfjmfz3ziyp1v71.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/bcaua5svwr3c14a3vz6koesev2fuuqq1.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/vy5mfle6nwmfdnzy717rkaaga88t7rhl.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/annf4l4unes98ws43pt7rbth4ufy9l6i.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/3yrtc1hy5djy7mq1p7z3744wef2ofmzh.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/y2hdowrvrdzvmg1z8pmdax8p4k99py9x.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/ug1m7goykhxvxcekqm2xbchnpasctu10.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/f40tkpeoumhair336npoe5gxm63twb9z.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/7tfewwx2ozf6ujsibxy23yj7udojfsqr.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/posuk76mzvyfe1vur8sfp3lprrbp9wyv.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/17jwnciger1rs8qewhfpxzzt0o7b28by.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/kg7b5otmcpx0uke25op8jpeoolnbhgra.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/5c1qo5m0a8djtuc23bl1m6n1ywwopnn6.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/o8eus41q6z03ayrkq1u410vhmduc15zr.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/pgte42vax8m1izmzbiyljfshvw0i8s4z.jpeg</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/97z1nxjb2bocdt2mbazhb2c0it66zra9.jpeg</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/qb4osnngw6nmy0pgiia6kuv0wdajd75a.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/uok4paxilmi8jz2nxedl19an3ihrjzbg.jpg</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/0iw3k9c59qky8se568ww96io1p12xrm5.jpeg</t>
   </si>
   <si>
     <t>https://www.flaginstitute.org/wp/wp-content/uploads/2012/10/UK-Union-Flag.png</t>
-  </si>
-  <si>
-    <t>Athlete Pic URL</t>
-  </si>
-  <si>
-    <t>Coach Pic URL</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Steven_Tigg_-_Cut_Out_u95KIl1.width-300_DAUDUeZ.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Anna-Hopkin.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Freya_Colbert_profile_shot.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Medi_Harris_profile_shot_1.width-300.png</t>
-  </si>
-  <si>
-    <t>No Selection</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Lewis_Burras_profile_shot.width-300.png</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/David_Hemmings.width-600.jpg</t>
-  </si>
-  <si>
-    <t>Cam Brooker</t>
-  </si>
-  <si>
-    <t>Emily Large</t>
-  </si>
-  <si>
-    <t>200 BCK (F)</t>
-  </si>
-  <si>
-    <t>Greg Butler</t>
-  </si>
-  <si>
-    <t>Jack McMillan</t>
-  </si>
-  <si>
-    <t>Kara Hanlon</t>
-  </si>
-  <si>
-    <t>Katie Shanahan</t>
-  </si>
-  <si>
-    <t>Keanna MacInnes</t>
-  </si>
-  <si>
-    <t>Lauren Cox</t>
-  </si>
-  <si>
-    <t>Luke Turley</t>
-  </si>
-  <si>
-    <t>Oliver Morgan</t>
-  </si>
-  <si>
-    <t>50 BCK (M)</t>
-  </si>
-  <si>
-    <t>Ryan Livingstone</t>
-  </si>
-  <si>
-    <t>https://www.teambath.com/wp-content/uploads/2021/12/Cameron-Brooker-scholar-swimming-2021-22-292x292.jpg</t>
-  </si>
-  <si>
-    <t>https://i2-prod.stokesentinel.co.uk/incoming/article3213803.ece/ALTERNATES/s1200c/0_GREG_BUTLER-6.jpg</t>
-  </si>
-  <si>
-    <t>https://pbs.twimg.com/media/E7TMeCFX0Aklo4n?format=jpg&amp;name=4096x4096</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/0230/5766/2029/files/image2_480x480.jpg?v=1624268274</t>
-  </si>
-  <si>
-    <t>https://www.britishswimming.org/media/images/Katie_Shanahan_200m_Back_SILVER_MEDAL.min-1024x768.jpg</t>
-  </si>
-  <si>
-    <t>https://www.edinburghnews.scotsman.com/webimg/b25lY21zOjQ3Y2ZmMmU2LWJjNjAtNDQ0OC1hMTgxLWZjNGEzMzQ2MTkyNzo4YTMyYmM1Zi1iMzA4LTQ4YzEtOGY4Yi1iMWJhZWJmZDEwNTI=.jpg?crop=3:2,smart&amp;width=1200&amp;auto=webp&amp;quality=75</t>
-  </si>
-  <si>
-    <t>https://resources.fina.org/photo-resources/2021/10/06/16e0fc80-49d3-4617-87c1-a490ce8574a4/b77c495e-b78c-4914-b03c-e52a760bc569?width=350</t>
-  </si>
-  <si>
-    <t>https://d1s9j44aio5gjs.cloudfront.net/2022/07/luke_turley_1200x675.png</t>
-  </si>
-  <si>
-    <t>https://resources.fina.org/photo-resources/2022/11/02/d9f05fd5-12f3-47ea-9fd3-93523d9356a0/d8a8fbca-16ac-489f-80dd-161b8c704c8b?width=350</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgWFRUYGBgYGBgYGBgYGBgZGBgYGBgZGRgZGBgcIS4lHB4rIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISGjYhJSs0NDQxNDQ0NDQ0NDQxNDQ0NDQ0NDQ0NDQ0NDQ0NDU0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NP/AABEIAPEA0QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xABBEAACAQIDBAgDBQYGAQUAAAABAgADEQQhMQUSQVEGIjJhcYGRsXKhwRMzQlKCBxQjYtHwNFOSssLh8RUWQ3Oi/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAIBAwQFBv/EACkRAAICAQIFAwQDAAAAAAAAAAABAhEDITEEEjJBUQUTcSI0YYFCcqH/2gAMAwEAAhEDEQA/AHQMdGmZi843pSP4v6RMKb/Sr7wfD9ZhRe50sXQhsdCEgsCEISACEIQAIQhAAhCEACEIggA6JFiQAIQhAAhCEACEQRYANktPUeIkUmo6jxHvJYHabsI/dhJox6GrGtHRDGMpx/Sztr8P1mBN7pYf4g+H6zBivc6OHoQhiwhFLQhCEACEIQAIQgFvAAhJxhH/ACn0kLIRqCIEKSfcSEIsCQiRYkCQixBFgARIsIAJCLEgQElodoeI95FJaHaXxHvBgdzCSbsIxiL8QiLEIjGY4zpX94Ph+swJvdK/vf0iYcV7nSxdCEEWEWKWBEixIAEAL5CKikkAC5JsBOo2bstUALZtxP0EHoJKVaLczMFsgtm+XcPrNrD7MVdBNGlRlxKUrchKb3Mv9ykNXAKRms3TSkL0ocwcpyeL2KNUNjyOkxKtJkNmFjO+ej3TO2lgA6m4z4GNGQXKJyESK6lWKnUQjstjJSVoIQhIGCEIQAIkWJAgQSxhh11+Ie8hk2F7S/EvvBgd9uQkkJZRhLEDFiGQZzh+lP3x+ETGm10o++PwiYsV7nTxdKCLEgJA4sIQgBs9HsLclzw6q/UzpqaTK2OtqaeF/WbdNYknqULXUs0klpEkVBZaURCwjKRjJJ92RMnOQSVWpypVSaTLKVeCYrOM6R4XdYOPAzKnUbcp7yETlVmhO4oTE6k0OhCEg0BCEIAJFhCABJsJ20+JfeQyfBdtPiX3gyHsehbsI+0JYc+yWBhCQUnEdKR/GPwiYs2ulX336RMWL3Oni6V8BCEJA4QhLWz6Ku9mFxuk/Qe8Aex0GyW/hr4CbKYpF1OcwsEhFIAHO5z85BVw4PacADUk2HhEaTZk5mlodfhsejGwcX5Xl4VJ5ruorXpuGPcTfyvOs2FjGcBSc5Eo0WQne5vGoBmTM3E7coobbwJ7pU27UZRui/lOYFKmLvUva/BS1j3m2siMbCcmtjr02vTfQ2jaz30nOUHpHNDfuIKN325zaw6ZXztyMJRSIi20Zu1RmBznNVMM6gMVIUk2POdbtahfdOnWAv4yDaeD3kKjgN5f0i/zF4ylSJgvqbOUixIsc0CQhCABCEIAEsYAddPiX3leWcB20+JfeDIex6HCPtCWHOHQimIZBUcT0q++/SJiTb6V/ffpH1mJF7nTxdCCEISCwJr7ATeL87L6XN/pMiaWw627VA4MCvnqPaQ9iHsdHg6V1Ud3vGV9lWffKk8uPjkJPspur4Er6G036KC0rbaZSopo5ShstQSEpnrZMTvWt5nu4TY2bQCMABaw4TQxJAHKR4Glx5yHJvcaMEmMxaXbxHGZFXZzZruAqTplb0OU38SkWg4PHPkYqbQ0opmFR2YMupugdy+wmo1PdFhpNH7MStVtJeu5FJIwtqkbgHePeS1EvTYHVFYX5jdMqbUqdYJ/MPeT7arBKDEakW82y+pjeBYPVnCiEIS0uCEIQAIQhAAlnAdtPiX3laWdn9tPiX3gyHsejWhFhLDnCwMQQaQVHFdKfvv0iYk2ulH336RMWK9zp4uhfAQhCQWBJsNVCOrEXCkG3hIYQA6/ZOKVyxW9i189c7f9zfbFhVuTOF2LiNxtcjrNrapYlQDZdT3nlK5LUzp02XcTjbgtfMaCO2Xt9cw43SNJiNVRzubzb3Bd085IMArfitbPskGCiu4c0uxsY3pCu9ZVLd4taLTxdxvE2PLl3GZtHBBRmxbiLKTHYnELS6rI9zoAuZvmLC8Gl2GuXc3sLtFXFgRvDUR2Jq5Tm0puKivuMlyMja5XjcCaOLxPC/CK0Q5NoxsfiAX3vy2y8MxMfGbRqVe25IGgyAHkJdqnr21uwHzidJtm/YVyoFlZQ68sx1gPA39ZbGOli4pfU0ZEBCEk0WEIQgSBhCEACWcB20+JfeVpYwPbT4l94EPY9HhEhLDnDrxGMoHa1H/MX1jW2zQ/zFkWheSXg5npM38Y+AmPL+2cQr1WZTcG1j5ShEOjBVFIIQhAYIQhACWg9jOgTGB1QHVTnOaBlvDPa0hxtGbLcZX5OybDIxR7DeWxBm1h64sbqpyIy7zec/ha2+gHG3CWqVNgO0fLSV7jKmtTbbFgKB1RZSvM2PL0lM7rNv2Bbn5Wy5aSouDYm9/C8kZgid/93kUkNotintOoC692cw62M3nY6Wyy0k+PxN7jjfLK0yt05Kq3d7AAaknKPGNlE5UzT6N4M18UijNUO+/cFz+ZtPRttdH0xKFHFjqrDVW5iR9DNgDDUgX+8ezOeXJR3CdJv8AJoUaRmc3do+f9q7OfD1GpVBZl9GHBl7jKc916T9GlxdBlIAqKCab8Q35T/KdDPDa9F0Yq6lWBsQRYgiI1RuxZedfkZCJCKXWLCEIEhLGB7afEvvK8koPusrciD6GAPY9H3oTnv/cqflb5RY9oxe1LwczaNIimErN9EZhAwkihCEnwmEeq26iFj3aDxPCBDdEEmw2Feod1EZj3DTxOgnWbL6IDJqzbx/IuQ8zqZ1OGwSIoVFCjkBaMomefEJdOpxOB6JO1jUcKPyr1m9dB85d2t0aCUgaQN0uTncsDrO1Sjl4xrplGpIyyyyluzz3ZOK4aTrcNpn6zntvbFek5rUwWRjcgDNTxsOIkGH2+q5M1vl8jKZQd6F+PKq1OvrOAuswNp17AgD53ylRdrBzZN5jfRRe3flwlzDbAxFc3PUTm395yIwdjSyqjnn3ndUQFmOQUakzv+ifRQUbVq9mq6qPwoCNLc9c5p7B6PU6Aui3fi7DP9PKdHSpATQlRklKxlNCZdpUQo74tJOMeTGSKmyNzOW6UdGqWMC7zFHS+66248DfUTqXF/DlI2pjkJDVjRk4u0eEbc6K4jDElk30H40uRbmw1X275hT6NekbW3bjkZye3eg2Hr3ZF+yfW6AWv/Mmh8RYxXHwa4cT2kePQm1troxicNcum8g/Glytv5uK+cxLRKNUZJq0LFiRZA6HWhEhAB8QmKY2QMxjQiNNzorsb95rbp7CDec8xwXzPyBjFUpKKti7G6NVa4DnqIdCe0w/lHLvnoGytjpQQIgsNSeLHmTNNMMFAAFgMgOQEsBMhHSowTyyl8FQ0wI9KXGTbl2tykrrlJsqK4WI9O/nJkWO3YAZ7KoB38l4zCwmHw9Suymktgp3Syi5scznpe4tNva4ayqAbse0O7TzvaZm1KJpFaqdpLBv5gcs/74yiU3zOtlub8OGDgubeVpfijZw2FppkiKPATUo4a+bekobOxG+qsg7QB9RNJCxlyd6mKSadMsBgJYoJeQ0KPEy6p5RkVseco0DiYoEW14xA0LApaSgSJ2ubCADDI3ojWWLW8YhQmAFCthw3DXUcD5TgulvQdGRqmGQLUXMouSuOIC6BuVtZ6Q9GQ1adxfiNe/vkNWWRm4u0fNrA3toRkQdQeRiCeiftF6N64mktv81QNR+cD39Z54JU1R0cc1JWh0IsIpaLEMWJIGZGZ7F0K2P9hh+sOu9mfnc528hYTz7oXsn94xK3F0Qh25E36o9Rfyns1FLIfE/0lkUYeIn/ABRAlK9v71islvKWqSdkdxP9+sbUS5t5mMZCpSp5k+EHXOWlXU9/tIXWQBEoioIMJJh1vJADTBWxmPtTC3R1P5T8sx7TpP3fKU8bSAR3I0RvYj6xZ9LLMTfuRryjC6K1SU3d3NCVvzuSw97eU6qmrHXLkBqfOYvRSgRTdgO0/sv/AHOipJbvMjDbgrLOMSWeSj5FSnbvPfJFH984nd6x15cZAJki5CMA4Rz8pICu1h7REW2XE690YDnc8Mh4yZV9eMgAVLeMcFjrRLxgGMkYyd/p/wByY8o1hIAy8bhAykWByIseXLkZ4b0s2CcLXIA/hvcoeXND3j2tPfas5npdsdcTQdLda28h5Ounrp4GJJWi7Dk5Zfg8OtCO+zb8jekJTR0OdeRI0mKZf6P4QVsTSpnRnF/AdYj5QRZJ0rPSegGyTRoKziz1H3zzA3eqPT3nXqOofE+8q4Ubqkfle/kZdcWDjz9ZakcqUnKTbHUu14IPn/4iW1MSi2beC+0ix7MEIUXY5KBa5PdfLS8OxCVuiVE6sgqpH1MYiFVYNdhkLXNxYWIHEkxXdTxHHjncZH0kWiXCSVtaFZlljBjOIyQp5MJKFZpgTE6U4jdphBqx+QzPztNxDOSxx/eMWE1VWC+S5t9ZXxEqjS3ehp4KClk53slb/Rt7Hw5Sii8bbx8WN5f0yGscxtpGgS2MeVJIzZJOU3J93YqiOXnKe08UUQ7vaIO6O/ifAazk9h7TZKg3qjbpPWvdlF/xHPLPuiyyqMlFmjDwkssHNdv9O8pjj/dpE7cfIRMTVPVVSueZufwC1yLanMQpC5vLLMtUS019BJUHOMpaeJj2bgJJApN8hF7hEvbIR6rJAQCMaSGMaAFWqJTxC5S+4lOsIrBGJ+40f8pP9IhL32cItD2/J8+GbvQymxxlJlHYJZjyWxH1Ew53f7NsOrLWbiGQfpsfqZVHc6eaXLBs9IdLG9siOsO48RJabXG6dQLeIOakRmGfLcfUdk8xHinnYZMMwOHePAy05ZFQex/0f0k+Jw6ubNewsciQQb3BBHhKobPz9M5dVtTzkVZKbi7QJh1a4YXytc62vfXxF5VxOzUP5tSRncAkknI8Lm8v4XSI+Zg0nuiVkknozNoYDccsGJvckd5z/r6ye2csFZC4zgklsEpOTtlrEVtxGfkpPoP62mD0SoXZ6h4CwPe2Z+nrLnSOpu0LfmKr9T7Sbo5R3aC82Jb52HsJTL6syXhWa4fRwrl3br9I0QOMdpnHBZXxwYoQnaIIHd35zS9EYVqZmLwtOqd41ircLMLKBw3Dl56yq2xF3GKVF+03rqxCqraXVgosQb9+suPQrDsKtrKtnsTfeN2Bu2VrC1+PdLOIp17AKFA3d0Zg2N16xFtNdJlbb1aNccsopRUtChs2k6MFfdzBC7r7wUdorYqDbvz0tN/QeUy9l0232ZkCkAZbqi1+AIGfGab52HMy/HsUZZc0rZIDYW7hAG2QzJkL1LFvGw9BJqItrqZYVEqJbvMfEEW0kgQxpEl3ZE0AIWlKvLriU8TpIZKKF4Rt4RRz5/np/wCzfDBKG+R94zb3gDur7fOec7OwjVqqU11dgvgOJ8hc+U9t2JgUSmqILBBYDwlUV3NvEyqPKae4D1XyP4X9rxzqQLP5OJKoysRcRwUjst5NnLEYTHxWJCHecgAZl/wkc+490qnpThr7u+fHdbd8zI+lKv8AY1chbdvl3EGedpUB4ynLOUXSR0uD4THmi3Js9owzgoCDcEXBHEGOWee9HttNRZUZv4ZsCD+D+YchzE9CBj45qSMvFcLLBKnqnswVZC63dRzllBIlHXHcCY5mMLpdVzRPib6D2M6PA0t1EXkqj5SCvgadRuuoawFjmCPMcJfJsIkINTcn3NGXMpYo40trv9jHbhGIL589PCJa/n7SdMpcZioMKbgb7kDPhfLTOSVKDWADt59a+Q5yWnqT5QcxeRE2yGgCAbm50vpe3G0chz8BeIpsPGMQ5E+UlAMojeY9xPqTNBFmfhTZQTqesb5a55yYYgcXHgoJkohl/fA1iLWU6ESqKi8EdvEG3zin7RtFVB35n0EmyC2xjTKowfFnYn0HpHANotz4wskVxKOLOUtu9sjrM/HPYRWCM7fhKH74nOEUemee/s5ob2ORrXVFck8iy7q+89dTC2PFTwInCfsv2dehVqW6xcBTzVBw8yZ6PSzA5yIrQtzyuXwIrsB11uPzL9RJAA2YIMeoIjHpKeFjzGR+UcoMjbOE3lZTo6lT5i0812n0bq0OvcOg1ZciOW8vCer4qmd3tAjv19ZlYvDipSdL23lK35HgYk4pmrh88sb/AB3POsPU3h3z0jotjPtKCgm7Id0+AzU+hHpPMWRqblGFipKkeE6/oTi92qyHR1uPiX/on0mTG+SfydjjI+9w991qd4JXSoFfPS1pODKhHWM2M86jRVl4H1ztIatYFt0Hx8Jh9IdsDDUt612OSg6X4k9wnEYLb2I3zUZzc8LDdty3ZXPPGLpm3hvT8mePMnS7WerpnnI6uOpqd0uityLAH0nADpViHUgFFv8AiUEN8ybTMerc2JuSbnie+8rlxSWyNeL0ebv3HXxqes0zYD1lXH4taaMzGwHqTwA755quNcHKowtyZh9YtfGO4szswGYDMSPHOQ+KVaIePo0uZXK13J9tbfq1TbeKLwVTb/UeMs7K23VX7KiOuHcKBxAOZN+QFzOVrvvNOp6J4XfxAc//ABobD+ZyAD6K3rKscpSmnZu4rFix4GlFUtvk9AoYddTme+XUUDQCRUlk6idJHlWEDHBYypVVdTny4+kCAC3kNWtbqpmeJ4DxgS7/AMi//o/0jggUWAtACt9nbXM8TMPbmLCI7nRFZj5C83K7WE88/aNj9zDMg1qME8tW+Qt5xJaFkI80kjzj/wBbrfmhKFoSq2dH214PZ/2a/wCEXwP+5p1lKEJatkc/J1MmEGhCMVlatKFaEIjHR5v0i/xNTxH+0S90X/xNLxb/AGNCExS60ejj9s/6npolcat4xITazzaOO/aJpS/X/wAZyY7JhCc/P1nqPT/t4k+C0lgdvyiwlTOgthicY9tIQkDIyk7fnO86E9ur4U/+cIS/B1o5vqH28jvacnSLCdNHlAbSZuH+8MIQYI0GkTQhAClidJ5d+1D7un/9n/BosIki7D1o85hCEpOof//Z</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png</t>
-  </si>
-  <si>
-    <t>https://swimming.box.com/shared/static/smacn7xoonr1qak9p7aottx0nq9d3mps.png</t>
   </si>
 </sst>
 </file>
@@ -705,17 +759,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="70.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="79.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="150.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -733,10 +787,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -744,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,19 +815,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,19 +835,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -801,19 +855,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -821,19 +875,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,19 +895,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,19 +915,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -881,19 +935,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,19 +955,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,19 +975,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,19 +995,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,19 +1015,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -981,19 +1035,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,19 +1055,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,19 +1075,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,19 +1095,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1061,19 +1115,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,19 +1135,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1101,19 +1155,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,19 +1175,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,19 +1195,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,19 +1215,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,19 +1235,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,19 +1255,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,19 +1275,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,19 +1295,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,19 +1315,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,19 +1335,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,19 +1355,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,19 +1375,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,19 +1395,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,19 +1415,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,19 +1435,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,19 +1455,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,19 +1475,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1441,19 +1495,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,19 +1515,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,19 +1535,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,19 +1555,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1521,19 +1575,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,19 +1595,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,19 +1615,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1581,19 +1635,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,19 +1655,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1621,19 +1675,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,19 +1695,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,19 +1715,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,19 +1735,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,19 +1755,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1721,19 +1775,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,19 +1795,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1761,19 +1815,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,19 +1835,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,19 +1855,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,19 +1875,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,19 +1895,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1861,19 +1915,19 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1881,19 +1935,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,19 +1955,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1921,19 +1975,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,19 +1995,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E62" s="3" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,19 +2015,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,19 +2035,19 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2001,19 +2055,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,19 +2075,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2041,19 +2095,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2061,19 +2115,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E68" s="3" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,19 +2135,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2101,19 +2155,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,19 +2175,19 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,19 +2195,19 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2161,19 +2215,19 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,19 +2235,19 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2201,19 +2255,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2221,19 +2275,19 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,19 +2295,19 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2261,349 +2315,67 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="F14" r:id="rId2"/>
-    <hyperlink ref="E30" r:id="rId3"/>
-    <hyperlink ref="E31" r:id="rId4"/>
-    <hyperlink ref="E78" r:id="rId5"/>
-    <hyperlink ref="F2" r:id="rId6"/>
-    <hyperlink ref="E66" r:id="rId7"/>
-    <hyperlink ref="E67:E69" r:id="rId8" display="https://www.britishswimming.org/media/images/Lewis_Burras_profile_shot.width-300.png"/>
-    <hyperlink ref="E3" r:id="rId9"/>
-    <hyperlink ref="E4:E6" r:id="rId10" display="https://www.britishswimming.org/media/images/Abbie-Wood.width-300.png"/>
-    <hyperlink ref="E7:E11" r:id="rId11" display="https://www.britishswimming.org/media/images/Freya_Colbert_profile_shot.width-300.png"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E13" r:id="rId13"/>
-    <hyperlink ref="E14" r:id="rId14"/>
-    <hyperlink ref="E15" r:id="rId15"/>
-    <hyperlink ref="E16" r:id="rId16"/>
-    <hyperlink ref="E17" r:id="rId17"/>
-    <hyperlink ref="E18" r:id="rId18"/>
-    <hyperlink ref="E19" r:id="rId19"/>
-    <hyperlink ref="E20:E22" r:id="rId20" display="https://www.britishswimming.org/media/images/Duncan-Scott.width-300.png"/>
-    <hyperlink ref="E23" r:id="rId21"/>
-    <hyperlink ref="E24" r:id="rId22"/>
-    <hyperlink ref="E25:E29" r:id="rId23" display="https://www.britishswimming.org/media/images/Freya-Anderson.width-300.png"/>
-    <hyperlink ref="E32" r:id="rId24"/>
-    <hyperlink ref="E33" r:id="rId25"/>
-    <hyperlink ref="E34" r:id="rId26"/>
-    <hyperlink ref="E35" r:id="rId27"/>
-    <hyperlink ref="E36" r:id="rId28"/>
-    <hyperlink ref="E37" r:id="rId29"/>
-    <hyperlink ref="E38" r:id="rId30"/>
-    <hyperlink ref="E39" r:id="rId31"/>
-    <hyperlink ref="E40" r:id="rId32"/>
-    <hyperlink ref="E42" r:id="rId33"/>
-    <hyperlink ref="E43" r:id="rId34"/>
-    <hyperlink ref="E44" r:id="rId35"/>
-    <hyperlink ref="E46" r:id="rId36"/>
-    <hyperlink ref="E41" r:id="rId37"/>
-    <hyperlink ref="E45" r:id="rId38"/>
-    <hyperlink ref="E47" r:id="rId39"/>
-    <hyperlink ref="E48" r:id="rId40"/>
-    <hyperlink ref="E49" r:id="rId41"/>
-    <hyperlink ref="E50" r:id="rId42"/>
-    <hyperlink ref="E51" r:id="rId43"/>
-    <hyperlink ref="E52:E53" r:id="rId44" display="https://cdn.shopify.com/s/files/1/0230/5766/2029/files/image2_480x480.jpg?v=1624268274"/>
-    <hyperlink ref="E54" r:id="rId45"/>
-    <hyperlink ref="E56" r:id="rId46"/>
-    <hyperlink ref="E55" r:id="rId47"/>
-    <hyperlink ref="E57" r:id="rId48"/>
-    <hyperlink ref="E58" r:id="rId49"/>
-    <hyperlink ref="E59" r:id="rId50"/>
-    <hyperlink ref="E60" r:id="rId51"/>
-    <hyperlink ref="E61" r:id="rId52"/>
-    <hyperlink ref="E62" r:id="rId53"/>
-    <hyperlink ref="E63" r:id="rId54"/>
-    <hyperlink ref="E64" r:id="rId55"/>
-    <hyperlink ref="E65" r:id="rId56"/>
-    <hyperlink ref="E70" r:id="rId57"/>
-    <hyperlink ref="E71" r:id="rId58"/>
-    <hyperlink ref="E72" r:id="rId59"/>
-    <hyperlink ref="E73" r:id="rId60"/>
-    <hyperlink ref="E74" r:id="rId61"/>
-    <hyperlink ref="E75" r:id="rId62"/>
-    <hyperlink ref="E76" r:id="rId63"/>
-    <hyperlink ref="E77" r:id="rId64"/>
-    <hyperlink ref="E79:E82" r:id="rId65" display="https://www.britishswimming.org/media/images/Medi_Harris_profile_shot_1.width-300.png"/>
-    <hyperlink ref="E87" r:id="rId66"/>
-    <hyperlink ref="E88" r:id="rId67"/>
-    <hyperlink ref="E89" r:id="rId68"/>
-    <hyperlink ref="E83" r:id="rId69"/>
-    <hyperlink ref="E84" r:id="rId70"/>
-    <hyperlink ref="E85" r:id="rId71"/>
-    <hyperlink ref="E86" r:id="rId72"/>
-    <hyperlink ref="E90" r:id="rId73"/>
-    <hyperlink ref="F7" r:id="rId74"/>
-    <hyperlink ref="F8:F11" r:id="rId75" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
-    <hyperlink ref="F34" r:id="rId76"/>
-    <hyperlink ref="F40:F41" r:id="rId77" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
-    <hyperlink ref="F63:F69" r:id="rId78" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
-    <hyperlink ref="F83:F86" r:id="rId79" display="https://swimming.box.com/shared/static/kys8q030tnl41wnm1g5q8xdmo294mhah.png"/>
-    <hyperlink ref="F15:F16" r:id="rId80" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
-    <hyperlink ref="F24:F29" r:id="rId81" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
-    <hyperlink ref="F36:F39" r:id="rId82" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
-    <hyperlink ref="F42:F45" r:id="rId83" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
-    <hyperlink ref="F87:F90" r:id="rId84" display="https://swimming.box.com/shared/static/jmsvbhj3mbnh6vvpxse92i2wz9g9hgj5.png"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -335,9 +335,6 @@
     <t>https://swimming.box.com/shared/static/03yebjwxq2sovetimqqa93gxf4ovsll7.png</t>
   </si>
   <si>
-    <t>https://swimming.box.com/shared/static/9e0a6i0o01wa7hu2genp4801mc481uhw.png</t>
-  </si>
-  <si>
     <t>https://swimming.box.com/shared/static/ifr93ccc8oicj33vekzvl2kf1m49ub7v.png</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>https://swimming.box.com/shared/static/5c1qo5m0a8djtuc23bl1m6n1ywwopnn6.png</t>
   </si>
   <si>
-    <t>https://swimming.box.com/shared/static/o8eus41q6z03ayrkq1u410vhmduc15zr.png</t>
-  </si>
-  <si>
     <t>https://swimming.box.com/shared/static/pgte42vax8m1izmzbiyljfshvw0i8s4z.jpeg</t>
   </si>
   <si>
@@ -414,6 +408,12 @@
   </si>
   <si>
     <t>https://www.flaginstitute.org/wp/wp-content/uploads/2012/10/UK-Union-Flag.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/shared/static/519nr67ah57pobdfjsjn5ugdnsulbo15.png</t>
+  </si>
+  <si>
+    <t>https://swimming.box.com/s/ogqb2mei8vdwg55rlihs698670t4qd6j</t>
   </si>
 </sst>
 </file>
@@ -804,10 +804,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
         <v>97</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>97</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>98</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>98</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
         <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>99</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>99</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>99</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>101</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>101</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>101</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1304,10 +1304,10 @@
         <v>28</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1324,10 +1324,10 @@
         <v>28</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,10 +1344,10 @@
         <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,10 +1364,10 @@
         <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,10 +1384,10 @@
         <v>47</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1404,10 +1404,10 @@
         <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1424,10 +1424,10 @@
         <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,10 +1444,10 @@
         <v>47</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,10 +1464,10 @@
         <v>47</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,10 +1484,10 @@
         <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,10 +1504,10 @@
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,10 +1524,10 @@
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,10 +1544,10 @@
         <v>36</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1564,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,10 +1584,10 @@
         <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,10 +1604,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,10 +1644,10 @@
         <v>36</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,10 +1664,10 @@
         <v>47</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,10 +1684,10 @@
         <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,10 +1704,10 @@
         <v>28</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,10 +1724,10 @@
         <v>28</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,10 +1744,10 @@
         <v>28</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,10 +1764,10 @@
         <v>47</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,10 +1784,10 @@
         <v>47</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,10 +1804,10 @@
         <v>47</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,10 +1824,10 @@
         <v>36</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1844,10 +1844,10 @@
         <v>8</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,10 +1864,10 @@
         <v>8</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1884,10 +1884,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1904,10 +1904,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1944,10 +1944,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1984,10 +1984,10 @@
         <v>47</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,10 +2004,10 @@
         <v>8</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,10 +2024,10 @@
         <v>28</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,10 +2044,10 @@
         <v>28</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,10 +2064,10 @@
         <v>28</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,10 +2084,10 @@
         <v>28</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,10 +2104,10 @@
         <v>47</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,10 +2124,10 @@
         <v>47</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2144,10 +2144,10 @@
         <v>47</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,10 +2164,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2184,10 +2184,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2204,10 +2204,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2224,10 +2224,10 @@
         <v>10</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2244,10 +2244,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,10 +2264,10 @@
         <v>10</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,10 +2284,10 @@
         <v>36</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2304,10 +2304,10 @@
         <v>36</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2324,10 +2324,10 @@
         <v>36</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2374,8 +2374,12 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="E27" r:id="rId3"/>
+    <hyperlink ref="E76" r:id="rId4"/>
+    <hyperlink ref="E77" r:id="rId5"/>
+    <hyperlink ref="E78" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -413,7 +413,7 @@
     <t>https://swimming.box.com/shared/static/519nr67ah57pobdfjsjn5ugdnsulbo15.png</t>
   </si>
   <si>
-    <t>https://swimming.box.com/s/ogqb2mei8vdwg55rlihs698670t4qd6j</t>
+    <t>https://swimming.box.com/shared/static/12ruhuduew34hnxgnbvvb8lq46u4a5y3.png</t>
   </si>
 </sst>
 </file>

--- a/Validation.xlsx
+++ b/Validation.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$77</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>F 100 Fl S9</t>
-  </si>
-  <si>
-    <t>F 100 Fr S9</t>
   </si>
   <si>
     <t>Tully Kearney</t>
@@ -759,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,10 +801,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,10 +841,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,10 +861,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -884,10 +881,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,10 +901,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,10 +921,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,10 +941,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -964,10 +961,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -984,10 +981,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,10 +1001,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1024,10 +1021,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1044,10 +1041,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,10 +1061,10 @@
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,10 +1081,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1104,10 +1101,10 @@
         <v>28</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1124,10 +1121,10 @@
         <v>28</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,10 +1141,10 @@
         <v>28</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1164,10 +1161,10 @@
         <v>28</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,10 +1181,10 @@
         <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,10 +1201,10 @@
         <v>28</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1224,10 +1221,10 @@
         <v>36</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1244,10 +1241,10 @@
         <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,10 +1261,10 @@
         <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,10 +1281,10 @@
         <v>36</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1304,10 +1301,10 @@
         <v>28</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1324,10 +1321,10 @@
         <v>28</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,10 +1341,10 @@
         <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1364,10 +1361,10 @@
         <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,10 +1381,10 @@
         <v>47</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1404,10 +1401,10 @@
         <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1424,10 +1421,10 @@
         <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,10 +1441,10 @@
         <v>47</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,10 +1461,10 @@
         <v>47</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,10 +1481,10 @@
         <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,10 +1501,10 @@
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,10 +1521,10 @@
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,10 +1541,10 @@
         <v>36</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1564,10 +1561,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,10 +1581,10 @@
         <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,10 +1601,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,10 +1621,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1644,10 +1641,10 @@
         <v>36</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,10 +1661,10 @@
         <v>47</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,10 +1681,10 @@
         <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,10 +1701,10 @@
         <v>28</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,10 +1721,10 @@
         <v>28</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,10 +1741,10 @@
         <v>28</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,10 +1761,10 @@
         <v>47</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,10 +1781,10 @@
         <v>47</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,10 +1801,10 @@
         <v>47</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,10 +1821,10 @@
         <v>36</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1844,10 +1841,10 @@
         <v>8</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,10 +1861,10 @@
         <v>8</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1884,10 +1881,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1904,10 +1901,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,10 +1921,10 @@
         <v>10</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1944,10 +1941,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,10 +1961,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1984,10 +1981,10 @@
         <v>47</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,10 +2001,10 @@
         <v>8</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,10 +2021,10 @@
         <v>28</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,10 +2041,10 @@
         <v>28</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,10 +2061,10 @@
         <v>28</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,10 +2081,10 @@
         <v>28</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,10 +2101,10 @@
         <v>47</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,10 +2121,10 @@
         <v>47</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2144,10 +2141,10 @@
         <v>47</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2184,10 +2181,10 @@
         <v>10</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2198,16 +2195,16 @@
         <v>89</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2215,10 +2212,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>10</v>
@@ -2227,7 +2224,7 @@
         <v>119</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2235,7 +2232,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>93</v>
@@ -2244,10 +2241,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,19 +2252,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2275,19 +2272,19 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,40 +2292,26 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
@@ -2340,7 +2323,8 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="F80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
@@ -2363,21 +2347,14 @@
       <c r="E83" s="3"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="E27" r:id="rId3"/>
-    <hyperlink ref="E76" r:id="rId4"/>
-    <hyperlink ref="E77" r:id="rId5"/>
-    <hyperlink ref="E78" r:id="rId6"/>
+    <hyperlink ref="E75" r:id="rId4"/>
+    <hyperlink ref="E76" r:id="rId5"/>
+    <hyperlink ref="E77" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
